--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,162 +447,8002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.581988897471611e-06</v>
+        <v>8.16496580927726e-09</v>
       </c>
       <c r="B2" t="n">
-        <v>1e-09</v>
+        <v>1e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.923488777591456</v>
+        <v>8.169051397361429e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>5263.157894737789</v>
+        <v>1.001001010990991e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.377078165834266</v>
+        <v>0.0001155278324901834</v>
       </c>
       <c r="B4" t="n">
-        <v>10526.31578947458</v>
+        <v>2.002002011981982e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.25978352085181</v>
+        <v>0.0001414921202275465</v>
       </c>
       <c r="B5" t="n">
-        <v>15789.47368421137</v>
+        <v>3.003003012972973e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.84697755518207</v>
+        <v>0.0001633810273351624</v>
       </c>
       <c r="B6" t="n">
-        <v>21052.63157894816</v>
+        <v>4.004004013963963e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.24532357065062</v>
+        <v>0.0001826655416319665</v>
       </c>
       <c r="B7" t="n">
-        <v>26315.78947368494</v>
+        <v>5.005005014954954e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.50952500220039</v>
+        <v>0.0002001000752281375</v>
       </c>
       <c r="B8" t="n">
-        <v>31578.94736842173</v>
+        <v>6.006006015945945e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.67207819938771</v>
+        <v>0.0002161327835218732</v>
       </c>
       <c r="B9" t="n">
-        <v>36842.10526315852</v>
+        <v>7.007007016936936e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.75415633166794</v>
+        <v>0.0002310556645475707</v>
       </c>
       <c r="B10" t="n">
-        <v>42105.26315789531</v>
+        <v>8.008008017927927e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17.77046633277287</v>
+        <v>0.0002450715408327253</v>
       </c>
       <c r="B11" t="n">
-        <v>47368.4210526321</v>
+        <v>9.009009018918917e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.73171623163396</v>
+        <v>0.0002583280862251194</v>
       </c>
       <c r="B12" t="n">
-        <v>52631.57894736889</v>
+        <v>1.001001001990991e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19.64598972515013</v>
+        <v>0.0002709367825514641</v>
       </c>
       <c r="B13" t="n">
-        <v>57894.73684210567</v>
+        <v>1.10110110209009e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.51956704170314</v>
+        <v>0.0002829842401017165</v>
       </c>
       <c r="B14" t="n">
-        <v>63157.89473684246</v>
+        <v>1.201201202189189e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.35744251723963</v>
+        <v>0.0002945393354928209</v>
       </c>
       <c r="B15" t="n">
-        <v>68421.05263157927</v>
+        <v>1.301301302288288e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.16366554014566</v>
+        <v>0.0003056579136210269</v>
       </c>
       <c r="B16" t="n">
-        <v>73684.21052631605</v>
+        <v>1.401401402387387e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22.94157338705621</v>
+        <v>0.0003163859986879409</v>
       </c>
       <c r="B17" t="n">
-        <v>78947.36842105283</v>
+        <v>1.501501502486486e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.69395511036372</v>
+        <v>0.0003267620543642917</v>
       </c>
       <c r="B18" t="n">
-        <v>84210.52631578963</v>
+        <v>1.601601602585585e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24.42316990216823</v>
+        <v>0.0003368186161407635</v>
       </c>
       <c r="B19" t="n">
-        <v>89473.68421052642</v>
+        <v>1.701701702684684e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.13123449750174</v>
+        <v>0.0003465834967011348</v>
       </c>
       <c r="B20" t="n">
-        <v>94736.8421052632</v>
+        <v>1.801801802783783e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.81988897471611</v>
+        <v>0.0003560806933718707</v>
       </c>
       <c r="B21" t="n">
-        <v>100000</v>
+        <v>1.901901902882883e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0003653310829902088</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.002002002981982e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0003743529620630848</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.102102103081081e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0003831624723430153</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.20220220318018e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0003917739401984499</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.302302303279279e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0004002001502064001</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.402402403378378e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0004084525679094598</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.502502503477477e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0004165415228262825</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.602602603576576e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0004244763600544146</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.702702703675676e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0004322655668124072</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.802802803774775e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0004399168788058242</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.902902903873874e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.000447437370214944</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.003003003972973e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.0004548335302849511</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.103103104072072e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.0004621113288787433</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.203203204171171e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.000469276272876314</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.30330330427027e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.0004763334549360262</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.403403404369369e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.0004832875958452667</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.503503504468468e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.0004901430814614285</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.603603604567567e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.0004969039950645508</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.703703704666667e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.0005035741457995216</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.803803804765766e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.0005101570937704623</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.903903904864865e-05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.0005166561722566864</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.004004004963964e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.0005230745074437652</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.104104105063063e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.0005294150360011927</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.204204205162162e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.0005356805207871113</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.304304305261261e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.0005418735649183833</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.404404405360361e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.0005479966244092785</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.50450450545946e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.000554052019552831</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.604604605558559e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.0005600419451944445</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.704704705657658e-05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0005659684800267447</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.804804805756757e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.0005718335950172833</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.904904905855856e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.0005776391610659695</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5.005005005954955e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.0005833869559765659</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5.105105106054054e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.0005890786708158853</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.205205206153153e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.0005947159157251611</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.305305306252252e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.0006003002252401904</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.405405406351351e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.00060583306317007</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.50550550645045e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.0006113158270784723</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5.605605606549549e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.0006167498524063408</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.705705706648648e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.000622136416270459</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.805805806747747e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.0006274767409685051</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.905905906846846e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.0006327719972178471</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.006006006945946e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.0006380233071523873</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.106106107045044e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.00064323174709919</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6.206206207144144e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.0006483983501543499</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6.306306307243242e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.000653524108575567</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6.406406407342342e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.0006586099760071177</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.506506507441442e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.0006636568695513539</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.60660660754054e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.0006686656716994744</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.70670670763964e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.0006736372321330791</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6.806806807738738e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.0006785723694069208</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6.906906907837838e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.0006834718725222926</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7.007007007936936e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.0006883365023996154</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.107107108036036e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.0006931669932580044</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.207207208135134e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.0006979640539089021</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.307307308234234e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.000702728368970227</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.407407408333334e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.0007074606000069276</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.507507508432432e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.0007121613866033238</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.607607608531532e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.0007168313473721523</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.70770770863063e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.0007214710809048287</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7.80780780872973e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.0007260811666670528</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7.907907908828828e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.0007306621658435553</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.008008008927928e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.00073521462213547</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8.108108109027027e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.0007397390625135382</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.208208209126126e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.0007442359979301022</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8.308308309225225e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.0007487059239926057</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.408408409324324e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.0007531493216011207</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.508508509423423e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.0007575666575522149</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8.608608609522522e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.0007619583851113139</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8.708708709621621e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0007663249445555378</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8.808808809720721e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.0007706667636888558</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8.908908909819819e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.0007749842583312652</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.009009009918919e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.0007792778327835765</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9.109109110018017e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.0007835478802692752</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9.209209210117117e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.0007877947833548285</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.309309310216215e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.0007920189143497064</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.409409410315315e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.0007962206356873038</v>
+      </c>
+      <c r="B97" t="n">
+        <v>9.509509510414413e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.0008004003002878628</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9.609609610513513e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.000804558251904427</v>
+      </c>
+      <c r="B99" t="n">
+        <v>9.709709710612613e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.0008086948254527873</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9.809809810711711e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.0008128103473263125</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9.909909910810811e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.0008169051356965063</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0001001001001090991</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.0008209795008000711</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0001011011011100901</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.0008250337452132127</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0001021021021110811</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.0008290681641138726</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0001031031031120721</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.0008330830455325289</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0001041041041130631</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.0008370786705921734</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.000105105105114054</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.0008410553137380247</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.000106106106115045</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.0008450132429575133</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.000107107107116036</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.0008489527199910371</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.000108108108117027</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.0008528740005339516</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.000109109109118018</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.0008567773344302436</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.000110110110119009</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.0008606629658582969</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00011111111112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.0008645311335091447</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.000112112112120991</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.0008683820707575746</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.000113113113121982</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.000872216005826435</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.000114114114122973</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.0008760331619444702</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.000115115115123964</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.0008798337574979907</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0001161161161249549</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.0008836180061766734</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0001171171171259459</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.0008873861171137658</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.0001181181181269369</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.000891138295020954</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0001191191191279279</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.0008948747403181405</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.0001201201201289189</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.0008985956492583669</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.0001211211211299099</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.0009023012140480986</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0001221221221309009</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.0009059916229630819</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0001231231231318919</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.0009096670604599717</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.0001241241241328829</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.0009133277072839148</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0001251251251338739</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.0009169737405722691</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.0001261261261348648</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.0009206053339546245</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0001271271271358558</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.0009242226576492876</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0001281281281368468</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.0009278258785563803</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0001291291291378378</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.0009314151603476967</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.0001301301301388288</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.000934990663553456</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.0001311311311398198</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.0009385525456460809</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0001321321321408108</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.0009421009611211238</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0001331331331418018</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.0009456360615754625</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0001341341341427928</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.000949157995782872</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0001351351351437838</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.0009526669097670838</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0001361361361447748</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.0009561629468724312</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0001371371371457658</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.0009596462478321782</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0001381381381467568</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.0009631169508346248</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0001391391391477478</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.0009665751915870754</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0001401401401487387</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.0009700211033777554</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.0001411411411497297</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.0009734548171357543</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.0001421421421507207</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.0009768764614890727</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0001431431431517117</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.0009802861628208457</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0001441441441527027</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.0009836840453238147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.0001451451451536937</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.0009870702310531055</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.0001461461461546847</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.00099044483997739</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0001471471471556757</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.0009938079900284787</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0001481481481566667</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.0009971597971494093</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0001491491491576576</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.001000500375341088</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0001501501501586486</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.001003829836707529</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0001511511511596396</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.001007148291499753</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0001521521521606306</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.001010455848158383</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0001531531531616216</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.001013752613354996</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0001541541541626126</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.00101703869203226</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.0001551551551636036</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.001020314187442916</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0001561561561645946</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.001023579201187629</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0001571571571655856</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.001026833833251763</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0001581581581665766</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.001030078182041109</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0001591591591675676</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.001033312344416597</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.0001601601601685585</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.001036536415728039</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0001611611611695495</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.001039750489846933</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.0001621621621705405</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.001042954659198348</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0001631631631715315</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.001046149014791942</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.0001641641641725225</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.001049333646252114</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.0001651651651735135</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.001052508641847355</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.0001661661661745045</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.001055674088518786</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.0001671671671754955</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.001058830071907941</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.0001681681681764865</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.0010619766763838</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0001691691691774775</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.001065113985069105</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.0001701701701784685</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.001068242079865981</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0001711711711794595</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.001071361041480883</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.0001721721721804504</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.001074470949448895</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0001731731731814414</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.001077571882157388</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0001741741741824324</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.00108066391686908</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0001751751751834234</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.001083747129744494</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.0001761761761844144</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.001086821595863845</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0001771771771854054</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.001089887389248377</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.0001781781781863964</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.001092944582881149</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0001791791791873874</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.001095993248727316</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.0001801801801883784</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.001099033457753886</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.0001811811811893693</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.001102065279949001</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.0001821821821903603</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.001105088784340731</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0001831831831913513</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.001108104039015418</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.0001841841841923423</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.001111111111135556</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.0001851851851933333</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.001114110066957253</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0001861861861943243</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.001117100971847264</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.0001871871871953153</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.00112008389029961</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.0001881881881963063</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.001123058885951808</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.0001891891891972973</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.00112602602160071</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.0001901901901982883</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.00112898535921797</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.0001911911911992793</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.001131936959965145</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.0001921921922002703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.001134880884208445</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.0001931931932012613</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.001137817191533134</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.0001941941942022523</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.001140745940757606</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.0001951951952032432</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.001143667189947129</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0001961961962042342</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.001146580996427277</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.0001971971972052252</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.001149487416797058</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.0001981981982062162</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.001152386506941738</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.0001991991992072072</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.00115527832204538</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.0002002002002081982</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.001158162916603098</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.0002012012012091892</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.001161040344433044</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.0002022022022101802</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.001163910658688118</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.0002032032032111712</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.001166773911867425</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.0002042042042121621</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.001169630155827482</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.0002052052052131531</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.001172479441793172</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.0002062062062141441</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.001175321820368462</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.0002072072072151351</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.001178157341546892</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.0002082082082161261</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.001180986054721836</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0002092092092171171</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.001183808008696534</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.0002102102102181081</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.001186623251693923</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.0002112112112190991</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.001189431831366248</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.0002122122122200901</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.001192233794804473</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.0002132132132210811</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.001195029188547493</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.0002142142142220721</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.001197818058591156</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.0002152152152230631</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.001200600450397089</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.000216216216224054</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.001203376408901346</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.000217217217225045</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.001206145978522876</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.000218218218226036</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.001208909203171815</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.000219219219227027</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.001211666126257609</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.000220220220228018</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.001214416790696969</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.000221221221229009</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.001217161238921669</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.00022222222223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.00121989951288618</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.000223223223230991</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.001222631654075154</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.000224224224231982</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.001225357703510756</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.000225225225232973</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.001228077701759852</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.000226226226233964</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.001230791688941052</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.0002272272272349549</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.001233499704731611</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.0002282282282359459</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.001236201788374204</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.0002292292292369369</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.00123889797868355</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.0002302302302379279</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.001241588314052928</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.0002312312312389189</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.00124427283246055</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.0002322322322399099</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.001246951571475816</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.0002332332332409009</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.00124962456826545</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.0002342342342418919</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.001252291859599518</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.0002352352352428829</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.001254953481857326</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.0002362362362438738</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.001257609471033211</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.0002372372372448648</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.00126025986274222</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.0002382382382458558</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.001262904692225682</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.0002392392392468468</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.001265543994356677</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.0002402402402478378</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.001268177803645395</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.0002412412412488288</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.001270806154244409</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.0002422422422498198</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.001273429079953835</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.0002432432432508108</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.001276046614226408</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.0002442442442518017</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.001278658790172454</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.0002452452452527927</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.001281265640564786</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.0002462462462537837</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.001283867197843491</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.0002472472472547747</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.001286463494120647</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.0002482482482557657</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.001289054561184945</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.0002492492492567567</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.00129164043050623</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.0002502502502577477</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.001294221133239959</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.0002512512512587387</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.001296796700231586</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.0002522522522597297</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.001299367162020858</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.0002532532532607207</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.001301932548846039</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.0002542542542617117</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.001304492890648067</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.0002552552552627027</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.001307048217074626</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.0002562562562636936</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.001309598557484149</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.0002572572572646846</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.001312143940949761</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.0002582582582656756</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.00131468439626314</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.0002592592592666666</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.001317219951938318</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.0002602602602676576</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.001319750636215414</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.0002612612612686486</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.001322276477064308</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0002622622622696396</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.001324797502188241</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.0002632632632706306</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.001327313739027367</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.0002642642642716216</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.001329825214762232</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.0002652652652726126</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.001332331956317202</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.0002662662662736036</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.001334833990363832</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.0002672672672745946</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.001337331343324173</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.0002682682682755856</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.001339824041374032</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.0002692692692765766</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.00134231211044617</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.0002702702702775675</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.00134479557623345</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.0002712712712785585</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.001347274464191934</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.0002722722722795495</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.001349748799543926</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.0002732732732805405</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.001352218607280966</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.0002742742742815315</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.001354683912166777</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.0002752752752825225</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.001357144738740157</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.0002762762762835135</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.001359601111317837</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.0002772772772845045</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.001362053053997275</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.0002782782782854955</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.001364500590659421</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.0002792792792864864</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.001366943744971429</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.0002802802802874774</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.001369382540389325</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.0002812812812884684</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.001371817000160637</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.0002822822822894594</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.001374247147326978</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0002832832832904504</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.001376673004726592</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0002842842842914414</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.001379094594996859</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.0002852852852924324</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.001381511940576757</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.0002862862862934234</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.00138392506370929</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.0002872872872944144</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.001386333986443876</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.0002882882882954053</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.001388738730638696</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.0002892892892963963</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.001391139317963008</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.0002902902902973873</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.001393535769899427</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.0002912912912983783</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.001395928107746167</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.0002922922922993693</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.00139831635261925</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.0002932932933003603</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.001400700525454677</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.0002942942943013513</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.001403080647010576</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.0002952952953023423</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.001405456737869303</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.0002962962963033333</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.001407828818439525</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.0002972972973043243</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.001410196908958261</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.0002982982983053152</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.0014125610294929</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.0002992992993063062</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.00141492119994318</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.0003003003003072972</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.001417277440043147</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.0003013013013082882</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.001419629769363076</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.0003023023023092792</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.001421978207311374</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.0003033033033102702</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.001424322773136439</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.0003043043043112612</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.001426663485928508</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.0003053053053122522</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.001429000364621468</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.0003063063063132432</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.001431333427994642</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.0003073073073142342</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.001433662694674553</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.0003083083083152252</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.001435988183136654</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.0003093093093162162</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.00143830991170704</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.0003103103103172072</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.001440627898564137</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.0003113113113181982</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.001442942161740355</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.0003123123123191891</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.00144525271912373</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.0003133133133201801</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.001447559588459536</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.0003143143143211711</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.001449862787351875</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.0003153153153221621</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.001452162333265243</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.0003163163163231531</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.001454458243526077</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.0003173173173241441</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.001456750535324277</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.0003183183183251351</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.001459039225714708</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.0003193193193261261</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.00146132433161868</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.0003203203203271171</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.001463605869825407</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.0003213213213281081</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.00146588385699345</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.0003223223223290991</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.00146815830965213</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.0003233233233300901</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.001470429244202932</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.0003243243243310811</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.001472696676920884</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.000325325325332072</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.001474960623955914</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.000326326326333063</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.0014772211013342</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.000327327327334054</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.001479478124959485</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.000328328328335045</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.001481731710614388</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.000329329329336036</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.001483981873961689</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.000330330330337027</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.001486228630545601</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.000331331331338018</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.001488471995793021</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.000332332332339009</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.001490711985014767</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.00033333333334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.001492948613406795</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.0003343343343409909</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.001495181896051407</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.0003353353353419819</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.00149741184791843</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.0003363363363429729</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.001499638483866393</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.0003373373373439639</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.001501861818643679</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.0003383383383449549</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.001504081866889667</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.0003393393393459459</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.001506298643135853</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.0003403403403469369</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.001508512161806964</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.0003413413413479279</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.001510722437222048</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.0003423423423489189</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.001512929483595561</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.0003433433433499098</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.001515133315038429</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.0003443443443509008</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.0015173339455591</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.0003453453453518918</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.001519531389064587</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.0003463463463528828</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.001521725659361489</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.0003473473473538738</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.001523916770157007</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0003483483483548648</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.001526104735059941</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.0003493493493558558</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.001528289567581673</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.0003503503503568468</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.001530471281137149</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.0003513513513578378</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.001532649889045829</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.0003523523523588288</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.001534825404532645</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.0003533533533598197</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.001536997840728934</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.0003543543543608107</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.00153916721067336</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.0003553553553618017</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.001541333527312832</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.0003563563563627927</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.001543496803503404</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.0003573573573637837</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.001545657052011161</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.0003583583583647747</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.001547814285513103</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.0003593593593657657</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.001549968516598013</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.0003603603603667567</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.001552119757767309</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.0003613613613677477</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.001554268021435897</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.0003623623623687387</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.001556413319933</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.0003633633633697297</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.001558555665502991</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.0003643643643707207</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.001560695070306201</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.0003653653653717117</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.00156283154641973</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.0003663663663727027</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.001564965105838239</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.0003673673673736936</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.001567095760474738</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.0003683683683746846</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.00156922352216136</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.0003693693693756756</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.001571348402650129</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.0003703703703766666</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.001573470413613716</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.0003713713713776576</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.001575589566646188</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.0003723723723786486</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.001577705873263749</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.0003733733733796396</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.001579819344905466</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.0003743743743806306</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.001581929992933993</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.0003753753753816216</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.001584037828636283</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.0003763763763826126</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.001586142863224293</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.0003773773773836036</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.001588245107835678</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.0003783783783845946</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.001590344573534481</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.0003793793793855856</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.001592441271311811</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.0003803803803865765</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.001594535212086514</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.0003813813813875675</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.001596626406705836</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.0003823823823885585</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.001598714865946081</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.0003833833833895495</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.001600800600513257</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.0003843843843905405</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.001602883621043715</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.0003853853853915315</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.001604963938104784</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.0003863863863925225</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.001607041562195397</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.0003873873873935135</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.001609116503746708</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.0003883883883945045</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.001611188773122701</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.0003893893893954954</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.001613258380620799</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.0003903903903964864</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.001615325336472455</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.0003913913913974774</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.001617389650843746</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.0003923923923984684</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.001619451333835958</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.0003933933933994594</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.001621510395486156</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.0003943943944004504</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.001623566845767761</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.0003953953954014414</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.00162562069459111</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.0003963963964024324</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.001627671951804014</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.0003973973974034234</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.00162972062719231</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.0003983983984044143</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.001631766730480402</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.0003993993994054053</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.001633810271331806</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.0004004004004063963</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.001635851259349674</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.0004014014014073873</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.00163788970407733</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.0004024024024083783</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.001639925614998781</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.0004034034034093693</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.001641959001539239</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.0004044044044103603</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.001643989873065629</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.0004054054054113513</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.001646018238887087</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.0004064064064123423</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.001648044108255466</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.0004074074074133333</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.001650067490365822</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.0004084084084143242</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.001652088394356903</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.0004094094094153152</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.00165410682931163</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.0004104104104163062</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.001656122804257577</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.0004114114114172972</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.001658136328167436</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.0004124124124182882</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.001660147409959488</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.0004134134134192792</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.001662156058498059</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.0004144144144202702</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.001664162282593981</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.0004154154154212612</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.00166616609100504</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.0004164164164222522</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.001668167492436422</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.0004174174174232432</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.001670166495541156</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.0004184184184242342</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.001672163108920549</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.0004194194194252252</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.001674157341124615</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.0004204204204262162</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.00167614920065251</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.0004214214214272072</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.001678138695952946</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.0004224224224281981</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.001680125835424615</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.0004234234234291891</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.0016821106274166</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.0004244244244301801</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.001684093080228784</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.0004254254254311711</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.001686073202112257</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.0004264264264321621</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.001688051001269715</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.0004274274274331531</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.001690026485855856</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.0004284284284341441</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.001691999663977774</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.0004294294294351351</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.001693970543695346</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.0004304304304361261</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.001695939133021617</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.0004314314314371171</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.001697905439923178</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.0004324324324381081</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.001699869472320545</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.0004334334334390991</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.001701831238088528</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.0004344344344400901</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.001703790745056605</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.000435435435441081</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.001705748001009278</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.000436436436442072</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.001707703013686441</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.000437437437443063</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.001709655790783735</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.000438438438444054</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.001711606339952901</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.000439439439445045</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.001713554668802129</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.000440440440446036</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.001715500784896404</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.000441441441447027</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.001717444695757854</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.000442442442448018</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.001719386408866079</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.000443443443449009</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.001721325931658499</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.0004444444444499999</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.001723263271530675</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.0004454454454509909</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.001725198435836647</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.0004464464464519819</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.001727131431889252</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.0004474474474529729</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.001729062266960455</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.0004484484484539639</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.001730990948281658</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.0004494494494549549</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.001732917483044025</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.0004504504504559459</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.001734841878398791</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.0004514514514569369</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.001736764141457571</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.0004524524524579279</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.001738684279292667</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.0004534534534589188</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.001740602298937372</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.0004544544544599098</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.001742518207386273</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.0004554554554609008</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.001744432011595545</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.0004564564564618918</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.001746343718483244</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.0004574574574628828</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.001748253334929607</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.0004584584584638738</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.001750160867777331</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.0004594594594648648</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.001752066323831865</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.0004604604604658558</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.001753969709861693</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.0004614614614668468</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.001755871032598613</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.0004624624624678378</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.001757770298738013</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.0004634634634688287</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.001759667514939152</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.0004644644644698197</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.001761562687825426</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.0004654654654708107</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.00176345582398464</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.0004664664664718017</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.001765346929969277</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.0004674674674727927</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.001767236012296761</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.0004684684684737837</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.001769123077449719</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.0004694694694747747</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.001771008131876241</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.0004704704704757657</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.001772891181990135</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.0004714714714767567</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.001774772234171186</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.0004724724724777477</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.001776651294765405</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.0004734734734787387</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.001778528370085279</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.0004744744744797297</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.001780403466410017</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.0004754754754807207</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.0017822765899858</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.0004764764764817117</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.001784147747026019</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.0004774774774827027</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.001786016943711516</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.0004784784784836936</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.001787884186190826</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.0004794794794846846</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.001789749480580407</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.0004804804804856756</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.00179161283296488</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.0004814814814866666</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.001793474249397256</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.0004824824824876576</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.001795333735899166</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.0004834834834886486</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.001797191298461091</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.0004844844844896396</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.001799046943042585</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.0004854854854906306</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.001800900675572497</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.0004864864864916216</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.001802752501949195</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.0004874874874926126</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.001804602428040783</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.0004884884884936036</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.001806450459685318</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.0004894894894945946</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.001808296602691025</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.0004904904904955856</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.001810140862836511</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.0004914914914965766</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.001811983245870976</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.0004924924924975675</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.001813823757514418</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.0004934934934985585</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.001815662403457848</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.0004944944944995495</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.001817499189363488</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.0004954954955005405</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.001819334120864978</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.0004964964965015315</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.001821167203567578</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.0004974974975025225</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.001822998443048363</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.0004984984985035135</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.00182482784485643</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.0004994994995045045</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.001826655414513085</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.0005005005005054955</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.001828481157512042</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.0005015015015064865</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.001830305079319615</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.0005025025025074775</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.00183212718537491</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.0005035035035084684</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.001833947481090011</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.0005045045045094594</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.001835765971850171</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.0005055055055104504</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.001837582663013996</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.0005065065065114414</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.00183939755991363</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.0005075075075124324</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.001841210667854937</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.0005085085085134234</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.001843021992117682</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.0005095095095144144</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.001844831537955712</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.0005105105105154054</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.00184663931059713</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.0005115115115163964</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.001848445315244476</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.0005125125125173874</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.001850249557074898</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.0005135135135183784</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.001852052041240327</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.0005145145145193694</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.001853852772867648</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.0005155155155203604</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.001855651757058871</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.0005165165165213514</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.001857448998891297</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.0005175175175223424</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.001859244503417689</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.0005185185185233334</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.001861038275666435</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.0005195195195243244</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.001862830320641712</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.0005205205205253154</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.001864620643323652</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.0005215215215263063</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.0018664092486685</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.0005225225225272972</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.001868196141608777</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.0005235235235282882</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.001869981327053436</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.0005245245245292792</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.00187176480988802</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.0005255255255302702</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.00187354659497482</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.0005265265265312612</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.001875326687153027</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.0005275275275322522</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.001877105091238888</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.0005285285285332432</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.001878881812025855</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.0005295295295342342</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.001880656854284739</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.0005305305305352252</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.001882430222763854</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.0005315315315362162</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.001884201922189175</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.0005325325325372072</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.001885971957264473</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.0005335335335381982</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.001887740332671471</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.0005345345345391892</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.00188950705306998</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.0005355355355401802</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.001891272123098051</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.0005365365365411712</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.001893035547372107</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.0005375375375421622</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.001894797330487095</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.0005385385385431532</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.001896557477016615</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.0005395395395441442</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.001898315991513066</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.0005405405405451351</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.00190007287850778</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.0005415415415461261</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.001901828142511159</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.0005425425425471171</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.001903581788012812</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.0005435435435481081</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.001905333819481684</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.0005445445445490991</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.001907084241366193</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.0005455455455500901</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.001908833058094362</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.0005465465465510811</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.001910580274073947</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.0005475475475520721</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.00191232589369257</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.000548548548553063</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.001914069921317843</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.000549549549554054</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.001915812361297499</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.000550550550555045</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.001917553217959519</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.000551551551556036</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.001919292495612254</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.000552552552557027</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.001921030198544552</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.000553553553558018</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.001922766331025881</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.000554554554559009</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.00192450089730645</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.00055555555556</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.001926233901617335</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.000556556556560991</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.001927965348170591</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.000557557557561982</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.001929695241159379</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.0005585585585629729</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.001931423584758082</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.0005595595595639639</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.001933150383122422</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.0005605605605649549</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.001934875640389576</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.0005615615615659459</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.001936599360678295</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.0005625625625669369</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.001938321548089013</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.0005635635635679279</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.001940042206703966</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.0005645645645689189</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.001941761340587303</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.0005655655655699099</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.001943478953785198</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.0005665665665709009</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.00194519505032596</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.0005675675675718919</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.001946909634220145</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.0005685685685728829</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.001948622709460666</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.0005695695695738739</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.001950334280022897</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.0005705705705748649</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.001952044349864787</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.0005715715715758559</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.001953752922926961</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.0005725725725768469</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.001955460003132831</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.0005735735735778379</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.001957165594388697</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.0005745745745788289</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.001958869700583851</v>
+      </c>
+      <c r="B577" t="n">
+        <v>0.0005755755755798199</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.001960572325590686</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.0005765765765808107</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.001962273473264794</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0.0005775775775818017</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.001963973147445067</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.0005785785785827927</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.001965671351953803</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.0005795795795837837</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.0019673680905968</v>
+      </c>
+      <c r="B582" t="n">
+        <v>0.0005805805805847747</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.001969063367163461</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.0005815815815857657</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.001970757185426889</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.0005825825825867567</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.001972449549143987</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.0005835835835877477</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.001974140462055556</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0.0005845845845887387</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.001975829927886389</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0.0005855855855897297</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.001977517950345366</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0.0005865865865907207</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.001979204533125555</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.0005875875875917117</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.001980889679904298</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0.0005885885885927027</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.001982573394343311</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0.0005895895895936937</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.001984255680088774</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.0005905905905946847</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.001985936540771424</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0.0005915915915956757</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.001987615980006646</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.0005925925925966667</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.001989294001394561</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0.0005935935935976577</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.001990970608520124</v>
+      </c>
+      <c r="B596" t="n">
+        <v>0.0005945945945986487</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.001992645804953203</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0.0005955955955996396</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.001994319594248676</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.0005965965966006306</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.001995991979946515</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0.0005975975976016216</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.001997662965571875</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0.0005985985986026126</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.001999332554635177</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0.0005995995996036036</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.002001000750632201</v>
+      </c>
+      <c r="B602" t="n">
+        <v>0.0006006006006045946</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.002002667557044163</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0.0006016016016055856</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.002004332977337809</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0.0006026026026065766</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.002005997014965488</v>
+      </c>
+      <c r="B605" t="n">
+        <v>0.0006036036036075675</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.002007659673365249</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.0006046046046085585</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.00200932095596091</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0.0006056056056095495</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.00201098086616215</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.0006066066066105405</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.002012639407364587</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0.0006076076076115315</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.00201429658294986</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.0006086086086125225</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.002015952396285708</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.0006096096096135135</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.002017606850726052</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0.0006106106106145045</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.002019259949611071</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0.0006116116116154955</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.002020911696267284</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.0006126126126164865</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.002022562094007627</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.0006136136136174774</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.00202421114613153</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.0006146146146184684</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.002025858855924995</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0.0006156156156194594</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.00202750522666067</v>
+      </c>
+      <c r="B618" t="n">
+        <v>0.0006166166166204504</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.002029150261597929</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0.0006176176176214414</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.002030793963982942</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.0006186186186224324</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.002032436337048754</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.0006196196196234234</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.002034077384015358</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.0006206206206244144</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.002035717108089768</v>
+      </c>
+      <c r="B623" t="n">
+        <v>0.0006216216216254054</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.002037355512466093</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0.0006226226226263964</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.002038992600325607</v>
+      </c>
+      <c r="B625" t="n">
+        <v>0.0006236236236273874</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.002040628374836827</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.0006246246246283784</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.002042262839155576</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0.0006256256256293694</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.002043895996425063</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0.0006266266266303604</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.002045527849775947</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0.0006276276276313514</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.002047158402326409</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0.0006286286286323424</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.002048787657182223</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0.0006296296296333334</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.002050415617436823</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0.0006306306306343244</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.002052042286171373</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0.0006316316316353152</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0.002053667666454834</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0.0006326326326363062</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.002055291761344031</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.0006336336336372972</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.002056914573883722</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0.0006346346346382882</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.002058536107106664</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.0006356356356392792</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.002060156364033679</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.0006366366366402702</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.002061775347673716</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.0006376376376412612</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.002063393061023925</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.0006386386386422522</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.00206500950706971</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.0006396396396432432</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.002066624688784806</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.0006406406406442342</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.002068238609131331</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.0006416416416452252</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.002069851271059857</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.0006426426426462162</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.002071462677509473</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.0006436436436472072</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.002073072831407841</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.0006446446446481982</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.002074681735671264</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.0006456456456491892</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.002076289393204746</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.0006466466466501802</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.002077895806902055</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.0006476476476511712</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.002079500979645777</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.0006486486486521622</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.002081104914307387</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.0006496496496531532</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.002082707613747297</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.0006506506506541441</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.002084309080814928</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.0006516516516551351</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.002085909318348757</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.0006526526526561261</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.002087508329176385</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.0006536536536571171</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.00208910611611459</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.0006546546546581081</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.002090702681969388</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.0006556556556590991</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.002092298029536089</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.0006566566566600901</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.002093892161599352</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.0006576576576610811</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.002095485080933246</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.000658658658662072</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.002097076790301304</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.000659659659663063</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.002098667292456579</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.000660660660664054</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.002100256590141699</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.000661661661665045</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.002101844686088923</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.000662662662666036</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.002103431583020196</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.000663663663667027</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.002105017283647204</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.000664664664668018</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.002106601790671426</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0.000665665665669009</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.00210818510678419</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.00066666666667</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.002109767234666723</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.000667667667670991</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.002111348176990209</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.0006686686686719819</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.002112927936415836</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.0006696696696729729</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.002114506515594855</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.0006706706706739639</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.002116083917168622</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.0006716716716749549</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.002117660143768661</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.0006726726726759459</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.002119235198016707</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.0006736736736769369</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.002120809082524761</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.0006746746746779279</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.002122381799895138</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.0006756756756789189</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.002123953352720519</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.0006766766766799099</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.002125523743583999</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0.0006776776776809009</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.002127092975059141</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.0006786786786818919</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.002128661049710017</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.0006796796796828829</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.002130227970091267</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.0006806806806838739</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.002131793738748138</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.0006816816816848649</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.00213335835821654</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.0006826826826858559</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.002134921831023089</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.0006836836836868469</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.002136484159685155</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.0006846846846878379</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.002138045346710914</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.0006856856856888289</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.002139605394599387</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.0006866866866898197</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.002141164305840494</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.0006876876876908107</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.002142722082915097</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.0006886886886918017</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.002144278728295046</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.0006896896896927927</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.002145834244443224</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0.0006906906906937837</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.002147388633813598</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.0006916916916947747</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.002148941898851255</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.0006926926926957657</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.002150494041992454</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0.0006936936936967567</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.002152045065664669</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0.0006946946946977477</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.002153594972286632</v>
+      </c>
+      <c r="B697" t="n">
+        <v>0.0006956956956987387</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.002155143764268376</v>
+      </c>
+      <c r="B698" t="n">
+        <v>0.0006966966966997297</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.002156691444011283</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.0006976976977007207</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.002158238013908123</v>
+      </c>
+      <c r="B700" t="n">
+        <v>0.0006986986987017117</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.0021597834763431</v>
+      </c>
+      <c r="B701" t="n">
+        <v>0.0006996996997027027</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.002161327833691893</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0.0007007007007036937</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.002162871088321701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0.0007017017017046847</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.002164413242591281</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0.0007027027027056757</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.002165954298850996</v>
+      </c>
+      <c r="B705" t="n">
+        <v>0.0007037037037066667</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.002167494259442852</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.0007047047047076577</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.002169033126700541</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0.0007057057057086486</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.002170570902949482</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0.0007067067067096396</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.002172107590506865</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0.0007077077077106306</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.002173643191681686</v>
+      </c>
+      <c r="B710" t="n">
+        <v>0.0007087087087116216</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.002175177708774791</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0.0007097097097126126</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.002176711144078919</v>
+      </c>
+      <c r="B712" t="n">
+        <v>0.0007107107107136036</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.002178243499878736</v>
+      </c>
+      <c r="B713" t="n">
+        <v>0.0007117117117145946</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.002179774778450877</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0.0007127127127155856</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.002181304982063989</v>
+      </c>
+      <c r="B715" t="n">
+        <v>0.0007137137137165766</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.002182834112978763</v>
+      </c>
+      <c r="B716" t="n">
+        <v>0.0007147147147175675</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.002184362173447982</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0.0007157157157185585</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.00218588916571655</v>
+      </c>
+      <c r="B718" t="n">
+        <v>0.0007167167167195495</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.00218741509202154</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0.0007177177177205405</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.002188939954592225</v>
+      </c>
+      <c r="B720" t="n">
+        <v>0.0007187187187215315</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.002190463755650117</v>
+      </c>
+      <c r="B721" t="n">
+        <v>0.0007197197197225225</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.002191986497409011</v>
+      </c>
+      <c r="B722" t="n">
+        <v>0.0007207207207235135</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.002193508182075013</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0.0007217217217245045</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.002195028811846586</v>
+      </c>
+      <c r="B724" t="n">
+        <v>0.0007227227227254955</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.002196548388914581</v>
+      </c>
+      <c r="B725" t="n">
+        <v>0.0007237237237264864</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.002198066915462277</v>
+      </c>
+      <c r="B726" t="n">
+        <v>0.0007247247247274774</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.002199584393665416</v>
+      </c>
+      <c r="B727" t="n">
+        <v>0.0007257257257284684</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.00220110082569224</v>
+      </c>
+      <c r="B728" t="n">
+        <v>0.0007267267267294594</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.002202616213703529</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0.0007277277277304504</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.002204130559852632</v>
+      </c>
+      <c r="B730" t="n">
+        <v>0.0007287287287314414</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.002205643866285508</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0.0007297297297324324</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.002207156135140758</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0.0007307307307334234</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.002208667368549664</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0.0007317317317344144</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.002210177568636218</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0.0007327327327354054</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.002211686737517162</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0.0007337337337363964</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.002213194877302023</v>
+      </c>
+      <c r="B736" t="n">
+        <v>0.0007347347347373874</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.002214701990093142</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0.0007357357357383784</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.002216208077985713</v>
+      </c>
+      <c r="B738" t="n">
+        <v>0.0007367367367393694</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.002217713143067817</v>
+      </c>
+      <c r="B739" t="n">
+        <v>0.0007377377377403604</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.002219217187420452</v>
+      </c>
+      <c r="B740" t="n">
+        <v>0.0007387387387413514</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.002220720213117571</v>
+      </c>
+      <c r="B741" t="n">
+        <v>0.0007397397397423424</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.002222222222226111</v>
+      </c>
+      <c r="B742" t="n">
+        <v>0.0007407407407433334</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.002223723216806031</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0.0007417417417443242</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.002225223198910341</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0.0007427427427453152</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.002226722170585135</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.0007437437437463062</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.002228220133869628</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.0007447447447472972</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.002229717090796182</v>
+      </c>
+      <c r="B747" t="n">
+        <v>0.0007457457457482882</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.002231213043390343</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.0007467467467492792</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.00223270799367087</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0.0007477477477502702</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.002234201943649769</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0.0007487487487512612</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.002235694895332325</v>
+      </c>
+      <c r="B751" t="n">
+        <v>0.0007497497497522522</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.002237186850717128</v>
+      </c>
+      <c r="B752" t="n">
+        <v>0.0007507507507532432</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.002238677811796112</v>
+      </c>
+      <c r="B753" t="n">
+        <v>0.0007517517517542342</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.002240167780554581</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.0007527527527552252</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.002241656758971239</v>
+      </c>
+      <c r="B755" t="n">
+        <v>0.0007537537537562162</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.002243144749018228</v>
+      </c>
+      <c r="B756" t="n">
+        <v>0.0007547547547572072</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.002244631752661147</v>
+      </c>
+      <c r="B757" t="n">
+        <v>0.0007557557557581982</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.002246117771859094</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0.0007567567567591892</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.002247602808564687</v>
+      </c>
+      <c r="B759" t="n">
+        <v>0.0007577577577601802</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.002249086864724098</v>
+      </c>
+      <c r="B760" t="n">
+        <v>0.0007587587587611712</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.002250569942277084</v>
+      </c>
+      <c r="B761" t="n">
+        <v>0.0007597597597621621</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.002252052043157015</v>
+      </c>
+      <c r="B762" t="n">
+        <v>0.0007607607607631531</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.002253533169290901</v>
+      </c>
+      <c r="B763" t="n">
+        <v>0.0007617617617641441</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.002255013322599425</v>
+      </c>
+      <c r="B764" t="n">
+        <v>0.0007627627627651351</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.002256492504996971</v>
+      </c>
+      <c r="B765" t="n">
+        <v>0.0007637637637661261</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.002257970718391652</v>
+      </c>
+      <c r="B766" t="n">
+        <v>0.0007647647647671171</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.002259447964685339</v>
+      </c>
+      <c r="B767" t="n">
+        <v>0.0007657657657681081</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.00226092424577369</v>
+      </c>
+      <c r="B768" t="n">
+        <v>0.0007667667667690991</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.002262399563546177</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0.0007677677677700901</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.002263873919886119</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0.0007687687687710811</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.002265347316670701</v>
+      </c>
+      <c r="B771" t="n">
+        <v>0.000769769769772072</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.002266819755771013</v>
+      </c>
+      <c r="B772" t="n">
+        <v>0.000770770770773063</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.002268291239052067</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0.000771771771774054</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.002269761768372832</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0.000772772772775045</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.00227123134558626</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0.000773773773776036</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.00227269997253931</v>
+      </c>
+      <c r="B776" t="n">
+        <v>0.000774774774777027</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.002274167651072978</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0.000775775775778018</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0.002275634383022324</v>
+      </c>
+      <c r="B778" t="n">
+        <v>0.000776776776779009</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.002277100170216497</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0.00077777777778</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.002278565014478763</v>
+      </c>
+      <c r="B780" t="n">
+        <v>0.0007787787787809909</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.002280028917626532</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.0007797797797819819</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.00228149188147138</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0.0007807807807829729</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.002282953907819084</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.0007817817817839639</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.002284414998469637</v>
+      </c>
+      <c r="B784" t="n">
+        <v>0.0007827827827849549</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.002285875155217283</v>
+      </c>
+      <c r="B785" t="n">
+        <v>0.0007837837837859459</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.002287334379850538</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.0007847847847869369</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.002288792674152216</v>
+      </c>
+      <c r="B787" t="n">
+        <v>0.0007857857857879279</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.002290250039899456</v>
+      </c>
+      <c r="B788" t="n">
+        <v>0.0007867867867889189</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.002291706478863745</v>
+      </c>
+      <c r="B789" t="n">
+        <v>0.0007877877877899099</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.002293161992810947</v>
+      </c>
+      <c r="B790" t="n">
+        <v>0.0007887887887909009</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.002294616583501322</v>
+      </c>
+      <c r="B791" t="n">
+        <v>0.0007897897897918919</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.002296070252689557</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0.0007907907907928829</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.002297523002124787</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0.0007917917917938739</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.00229897483355062</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.0007927927927948649</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.002300425748705162</v>
+      </c>
+      <c r="B795" t="n">
+        <v>0.0007937937937958559</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.002301875749321043</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0.0007947947947968469</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.002303324837125437</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.0007957957957978379</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.002304773013840088</v>
+      </c>
+      <c r="B798" t="n">
+        <v>0.0007967967967988287</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.002306220281181339</v>
+      </c>
+      <c r="B799" t="n">
+        <v>0.0007977977977998197</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.002307666640860143</v>
+      </c>
+      <c r="B800" t="n">
+        <v>0.0007987987988008107</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.002309112094582102</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.0007997997998018017</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.002310556644047479</v>
+      </c>
+      <c r="B802" t="n">
+        <v>0.0008008008008027927</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.002312000290951227</v>
+      </c>
+      <c r="B803" t="n">
+        <v>0.0008018018018037837</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.002313443036983008</v>
+      </c>
+      <c r="B804" t="n">
+        <v>0.0008028028028047747</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.002314884883827222</v>
+      </c>
+      <c r="B805" t="n">
+        <v>0.0008038038038057657</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.002316325833163024</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0.0008048048048067567</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.002317765886664351</v>
+      </c>
+      <c r="B807" t="n">
+        <v>0.0008058058058077477</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.002319205045999942</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0.0008068068068087387</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.002320643312833361</v>
+      </c>
+      <c r="B809" t="n">
+        <v>0.0008078078078097297</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.002322080688823023</v>
+      </c>
+      <c r="B810" t="n">
+        <v>0.0008088088088107207</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.00232351717562221</v>
+      </c>
+      <c r="B811" t="n">
+        <v>0.0008098098098117117</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.002324952774879098</v>
+      </c>
+      <c r="B812" t="n">
+        <v>0.0008108108108127027</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.002326387488236778</v>
+      </c>
+      <c r="B813" t="n">
+        <v>0.0008118118118136937</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.002327821317333277</v>
+      </c>
+      <c r="B814" t="n">
+        <v>0.0008128128128146847</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.002329254263801579</v>
+      </c>
+      <c r="B815" t="n">
+        <v>0.0008138138138156757</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.002330686329269652</v>
+      </c>
+      <c r="B816" t="n">
+        <v>0.0008148148148166666</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.002332117515360461</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0.0008158158158176576</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.002333547823691997</v>
+      </c>
+      <c r="B818" t="n">
+        <v>0.0008168168168186486</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.002334977255877295</v>
+      </c>
+      <c r="B819" t="n">
+        <v>0.0008178178178196396</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.002336405813524455</v>
+      </c>
+      <c r="B820" t="n">
+        <v>0.0008188188188206306</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.002337833498236664</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0.0008198198198216216</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.002339260311612217</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0.0008208208208226126</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.002340686255244536</v>
+      </c>
+      <c r="B823" t="n">
+        <v>0.0008218218218236036</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.002342111330722196</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0.0008228228228245946</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.00234353553962894</v>
+      </c>
+      <c r="B825" t="n">
+        <v>0.0008238238238255856</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.002344958883543699</v>
+      </c>
+      <c r="B826" t="n">
+        <v>0.0008248248248265765</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.002346381364040619</v>
+      </c>
+      <c r="B827" t="n">
+        <v>0.0008258258258275675</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.002347802982689076</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0.0008268268268285585</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.002349223741053698</v>
+      </c>
+      <c r="B829" t="n">
+        <v>0.0008278278278295495</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.002350643640694382</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0.0008288288288305405</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.002352062683166319</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0.0008298298298315315</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.002353480870020012</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0.0008308308308325225</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.002354898202801292</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0.0008318318318335135</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.002356314683051345</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0.0008328328328345044</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.002357730312306726</v>
+      </c>
+      <c r="B835" t="n">
+        <v>0.0008338338338354954</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.002359145092099377</v>
+      </c>
+      <c r="B836" t="n">
+        <v>0.0008348348348364864</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.002360559023956652</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0.0008358358358374774</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.002361972109401334</v>
+      </c>
+      <c r="B838" t="n">
+        <v>0.0008368368368384684</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.002363384349951653</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0.0008378378378394594</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.002364795747121303</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0.0008388388388404504</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.002366206302419468</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0.0008398398398414414</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.002367616017350832</v>
+      </c>
+      <c r="B842" t="n">
+        <v>0.0008408408408424324</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.002369024893415606</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0.0008418418418434234</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.00237043293210954</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0.0008428428428444144</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.002371840134923945</v>
+      </c>
+      <c r="B845" t="n">
+        <v>0.0008438438438454054</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.002373246503345711</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0.0008448448448463964</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.002374652038857325</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0.0008458458458473874</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.002376056742936889</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0.0008468468468483784</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.002377460617058138</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0.0008478478478493694</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.00237886366269046</v>
+      </c>
+      <c r="B850" t="n">
+        <v>0.0008488488488503604</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.00238026588129891</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0.0008498498498513514</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.002381667274344232</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0.0008508508508523424</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.002383067843282874</v>
+      </c>
+      <c r="B853" t="n">
+        <v>0.0008518518518533332</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.002384467589567008</v>
+      </c>
+      <c r="B854" t="n">
+        <v>0.0008528528528543242</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.002385866514644544</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0.0008538538538553152</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.002387264619959151</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0.0008548548548563062</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.002388661906950273</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0.0008558558558572972</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.002390058377053147</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0.0008568568568582882</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.002391454031698818</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0.0008578578578592792</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.002392848872314157</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0.0008588588588602702</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.002394242900321883</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0.0008598598598612612</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.00239563611714057</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0.0008608608608622522</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.002397028524184674</v>
+      </c>
+      <c r="B863" t="n">
+        <v>0.0008618618618632432</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.002398420122864541</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0.0008628628628642342</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.002399810914586432</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0.0008638638638652252</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.002401200900752532</v>
+      </c>
+      <c r="B866" t="n">
+        <v>0.0008648648648662162</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.002402590082760973</v>
+      </c>
+      <c r="B867" t="n">
+        <v>0.0008658658658672072</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.002403978462005845</v>
+      </c>
+      <c r="B868" t="n">
+        <v>0.0008668668668681982</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.002405366039877215</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0.0008678678678691892</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.002406752817761143</v>
+      </c>
+      <c r="B870" t="n">
+        <v>0.0008688688688701802</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.002408138797039699</v>
+      </c>
+      <c r="B871" t="n">
+        <v>0.0008698698698711711</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.002409523979090977</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0.0008708708708721621</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.002410908365289113</v>
+      </c>
+      <c r="B873" t="n">
+        <v>0.0008718718718731531</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.002412291957004298</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0.0008728728728741441</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.002413674755602799</v>
+      </c>
+      <c r="B875" t="n">
+        <v>0.0008738738738751351</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.00241505676244697</v>
+      </c>
+      <c r="B876" t="n">
+        <v>0.0008748748748761261</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.002416437978895268</v>
+      </c>
+      <c r="B877" t="n">
+        <v>0.0008758758758771171</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.002417818406302271</v>
+      </c>
+      <c r="B878" t="n">
+        <v>0.0008768768768781081</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.002419198046018693</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0.0008778778778790991</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.002420576899391397</v>
+      </c>
+      <c r="B880" t="n">
+        <v>0.0008788788788800901</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.002421954967763413</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0.0008798798798810811</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.002423332252473953</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0.000880880880882072</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.002424708754858423</v>
+      </c>
+      <c r="B883" t="n">
+        <v>0.000881881881883063</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.002426084476248445</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0.000882882882884054</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.002427459417971864</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0.000883883883885045</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.002428833581352767</v>
+      </c>
+      <c r="B886" t="n">
+        <v>0.000884884884886036</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.002430206967711498</v>
+      </c>
+      <c r="B887" t="n">
+        <v>0.000885885885887027</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.002431579578364673</v>
+      </c>
+      <c r="B888" t="n">
+        <v>0.000886886886888018</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.002432951414625193</v>
+      </c>
+      <c r="B889" t="n">
+        <v>0.0008878878878890089</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.00243432247780226</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0.0008888888888899999</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.002435692769201391</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.0008898898898909909</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.002437062290124433</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0.0008908908908919819</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.002438431041869577</v>
+      </c>
+      <c r="B893" t="n">
+        <v>0.0008918918918929729</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.002439799025731374</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.0008928928928939639</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.002441166243000743</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0.0008938938938949549</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.002442532694964997</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.0008948948948959459</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.002443898382907845</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0.0008958958958969369</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.002445263308109412</v>
+      </c>
+      <c r="B898" t="n">
+        <v>0.0008968968968979279</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.002446627471846254</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0.0008978978978989189</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.002447990875391368</v>
+      </c>
+      <c r="B900" t="n">
+        <v>0.0008988988988999099</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.002449353520014211</v>
+      </c>
+      <c r="B901" t="n">
+        <v>0.0008998998999009009</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.002450715406980707</v>
+      </c>
+      <c r="B902" t="n">
+        <v>0.0009009009009018919</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.002452076537553267</v>
+      </c>
+      <c r="B903" t="n">
+        <v>0.0009019019019028829</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.0024534369129908</v>
+      </c>
+      <c r="B904" t="n">
+        <v>0.0009029029029038739</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.002454796534548726</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0.0009039039039048649</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0.00245615540347899</v>
+      </c>
+      <c r="B906" t="n">
+        <v>0.0009049049049058559</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0.002457513521030077</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0.0009059059059068469</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.002458870888447023</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0.0009069069069078377</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.00246022750697143</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.0009079079079088287</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.002461583377841479</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0.0009089089089098197</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.002462938502291942</v>
+      </c>
+      <c r="B911" t="n">
+        <v>0.0009099099099108107</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.002464292881554195</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0.0009109109109118017</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.002465646516856235</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0.0009119119119127927</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.002466999409422688</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0.0009129129129137837</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.002468351560474824</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0.0009139139139147747</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.00246970297123057</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0.0009149149149157657</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.002471053642904523</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.0009159159159167567</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.002472403576707961</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0.0009169169169177477</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.002473752773848859</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0.0009179179179187387</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.002475101235531899</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.0009189189189197297</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.002476448962958481</v>
+      </c>
+      <c r="B921" t="n">
+        <v>0.0009199199199207207</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.002477795957326742</v>
+      </c>
+      <c r="B922" t="n">
+        <v>0.0009209209209217117</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.002479142219831559</v>
+      </c>
+      <c r="B923" t="n">
+        <v>0.0009219219219227027</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.002480487751664571</v>
+      </c>
+      <c r="B924" t="n">
+        <v>0.0009229229229236937</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.002481832554014184</v>
+      </c>
+      <c r="B925" t="n">
+        <v>0.0009239239239246847</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.002483176628065585</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0.0009249249249256756</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.00248451997500076</v>
+      </c>
+      <c r="B927" t="n">
+        <v>0.0009259259259266666</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.002485862595998496</v>
+      </c>
+      <c r="B928" t="n">
+        <v>0.0009269269269276576</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.002487204492234402</v>
+      </c>
+      <c r="B929" t="n">
+        <v>0.0009279279279286486</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.002488545664880916</v>
+      </c>
+      <c r="B930" t="n">
+        <v>0.0009289289289296396</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.002489886115107316</v>
+      </c>
+      <c r="B931" t="n">
+        <v>0.0009299299299306306</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.002491225844079739</v>
+      </c>
+      <c r="B932" t="n">
+        <v>0.0009309309309316216</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.002492564852961186</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0.0009319319319326126</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.002493903142911533</v>
+      </c>
+      <c r="B934" t="n">
+        <v>0.0009329329329336036</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.002495240715087551</v>
+      </c>
+      <c r="B935" t="n">
+        <v>0.0009339339339345946</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.002496577570642906</v>
+      </c>
+      <c r="B936" t="n">
+        <v>0.0009349349349355856</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.002497913710728184</v>
+      </c>
+      <c r="B937" t="n">
+        <v>0.0009359359359365765</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.002499249136490888</v>
+      </c>
+      <c r="B938" t="n">
+        <v>0.0009369369369375675</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.002500583849075463</v>
+      </c>
+      <c r="B939" t="n">
+        <v>0.0009379379379385585</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.002501917849623297</v>
+      </c>
+      <c r="B940" t="n">
+        <v>0.0009389389389395495</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.00250325113927274</v>
+      </c>
+      <c r="B941" t="n">
+        <v>0.0009399399399405405</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.002504583719159109</v>
+      </c>
+      <c r="B942" t="n">
+        <v>0.0009409409409415315</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.002505915590414706</v>
+      </c>
+      <c r="B943" t="n">
+        <v>0.0009419419419425225</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.002507246754168821</v>
+      </c>
+      <c r="B944" t="n">
+        <v>0.0009429429429435134</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.002508577211547752</v>
+      </c>
+      <c r="B945" t="n">
+        <v>0.0009439439439445044</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.00250990696367481</v>
+      </c>
+      <c r="B946" t="n">
+        <v>0.0009449449449454954</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.002511236011670331</v>
+      </c>
+      <c r="B947" t="n">
+        <v>0.0009459459459464864</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.002512564356651689</v>
+      </c>
+      <c r="B948" t="n">
+        <v>0.0009469469469474774</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.002513891999733306</v>
+      </c>
+      <c r="B949" t="n">
+        <v>0.0009479479479484684</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.002515218942026664</v>
+      </c>
+      <c r="B950" t="n">
+        <v>0.0009489489489494594</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.002516545184640311</v>
+      </c>
+      <c r="B951" t="n">
+        <v>0.0009499499499504504</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.002517870728679879</v>
+      </c>
+      <c r="B952" t="n">
+        <v>0.0009509509509514414</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.002519195575248089</v>
+      </c>
+      <c r="B953" t="n">
+        <v>0.0009519519519524324</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0.002520519725444766</v>
+      </c>
+      <c r="B954" t="n">
+        <v>0.0009529529529534234</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.002521843180366845</v>
+      </c>
+      <c r="B955" t="n">
+        <v>0.0009539539539544144</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.002523165941108386</v>
+      </c>
+      <c r="B956" t="n">
+        <v>0.0009549549549554054</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.002524488008760583</v>
+      </c>
+      <c r="B957" t="n">
+        <v>0.0009559559559563964</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.002525809384411774</v>
+      </c>
+      <c r="B958" t="n">
+        <v>0.0009569569569573874</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.002527130069147449</v>
+      </c>
+      <c r="B959" t="n">
+        <v>0.0009579579579583784</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.002528450064050266</v>
+      </c>
+      <c r="B960" t="n">
+        <v>0.0009589589589593694</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.002529769370200059</v>
+      </c>
+      <c r="B961" t="n">
+        <v>0.0009599599599603604</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.002531087988673845</v>
+      </c>
+      <c r="B962" t="n">
+        <v>0.0009609609609613514</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.002532405920545839</v>
+      </c>
+      <c r="B963" t="n">
+        <v>0.0009619619619623422</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.00253372316688746</v>
+      </c>
+      <c r="B964" t="n">
+        <v>0.0009629629629633332</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.002535039728767348</v>
+      </c>
+      <c r="B965" t="n">
+        <v>0.0009639639639643242</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.002536355607251364</v>
+      </c>
+      <c r="B966" t="n">
+        <v>0.0009649649649653152</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.002537670803402609</v>
+      </c>
+      <c r="B967" t="n">
+        <v>0.0009659659659663062</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.002538985318281429</v>
+      </c>
+      <c r="B968" t="n">
+        <v>0.0009669669669672972</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.002540299152945427</v>
+      </c>
+      <c r="B969" t="n">
+        <v>0.0009679679679682882</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.002541612308449473</v>
+      </c>
+      <c r="B970" t="n">
+        <v>0.0009689689689692792</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.002542924785845714</v>
+      </c>
+      <c r="B971" t="n">
+        <v>0.0009699699699702702</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0.00254423658618358</v>
+      </c>
+      <c r="B972" t="n">
+        <v>0.0009709709709712612</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.002545547710509799</v>
+      </c>
+      <c r="B973" t="n">
+        <v>0.0009719719719722522</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.002546858159868407</v>
+      </c>
+      <c r="B974" t="n">
+        <v>0.0009729729729732432</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.002548167935300751</v>
+      </c>
+      <c r="B975" t="n">
+        <v>0.0009739739739742342</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.002549477037845507</v>
+      </c>
+      <c r="B976" t="n">
+        <v>0.0009749749749752252</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.002550785468538683</v>
+      </c>
+      <c r="B977" t="n">
+        <v>0.0009759759759762162</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.002552093228413632</v>
+      </c>
+      <c r="B978" t="n">
+        <v>0.0009769769769772071</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0.002553400318501061</v>
+      </c>
+      <c r="B979" t="n">
+        <v>0.0009779779779781981</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.002554706739829041</v>
+      </c>
+      <c r="B980" t="n">
+        <v>0.0009789789789791891</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.002556012493423014</v>
+      </c>
+      <c r="B981" t="n">
+        <v>0.0009799799799801801</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.002557317580305806</v>
+      </c>
+      <c r="B982" t="n">
+        <v>0.0009809809809811711</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.002558622001497632</v>
+      </c>
+      <c r="B983" t="n">
+        <v>0.0009819819819821621</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.00255992575801611</v>
+      </c>
+      <c r="B984" t="n">
+        <v>0.0009829829829831531</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.002561228850876267</v>
+      </c>
+      <c r="B985" t="n">
+        <v>0.0009839839839841441</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.002562531281090548</v>
+      </c>
+      <c r="B986" t="n">
+        <v>0.0009849849849851351</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.00256383304966883</v>
+      </c>
+      <c r="B987" t="n">
+        <v>0.0009859859859861261</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.002565134157618424</v>
+      </c>
+      <c r="B988" t="n">
+        <v>0.0009869869869871171</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.002566434605944088</v>
+      </c>
+      <c r="B989" t="n">
+        <v>0.0009879879879881081</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.002567734395648038</v>
+      </c>
+      <c r="B990" t="n">
+        <v>0.0009889889889890991</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.002569033527729951</v>
+      </c>
+      <c r="B991" t="n">
+        <v>0.0009899899899900901</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.002570332003186983</v>
+      </c>
+      <c r="B992" t="n">
+        <v>0.000990990990991081</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.002571629823013766</v>
+      </c>
+      <c r="B993" t="n">
+        <v>0.000991991991992072</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.002572926988202429</v>
+      </c>
+      <c r="B994" t="n">
+        <v>0.000992992992993063</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.002574223499742598</v>
+      </c>
+      <c r="B995" t="n">
+        <v>0.000993993993994054</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.002575519358621409</v>
+      </c>
+      <c r="B996" t="n">
+        <v>0.000994994994995045</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.002576814565823517</v>
+      </c>
+      <c r="B997" t="n">
+        <v>0.000995995995996036</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.002578109122331102</v>
+      </c>
+      <c r="B998" t="n">
+        <v>0.000996996996997027</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.002579403029123881</v>
+      </c>
+      <c r="B999" t="n">
+        <v>0.000997997997998018</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.002580696287179113</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>0.000998998998999009</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.002581988897471611</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -458,7 +458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B3" t="n">
-        <v>1.001001001010991e-06</v>
+        <v>1001001.001001001</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B4" t="n">
-        <v>2.002002002011982e-06</v>
+        <v>2002002.002002002</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B5" t="n">
-        <v>3.003003003012973e-06</v>
+        <v>3003003.003003003</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B6" t="n">
-        <v>4.004004004013964e-06</v>
+        <v>4004004.004004004</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B7" t="n">
-        <v>5.005005005014955e-06</v>
+        <v>5005005.005005005</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B8" t="n">
-        <v>6.006006006015946e-06</v>
+        <v>6006006.006006006</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B9" t="n">
-        <v>7.007007007016937e-06</v>
+        <v>7007007.007007007</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B10" t="n">
-        <v>8.008008008017928e-06</v>
+        <v>8008008.008008008</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B11" t="n">
-        <v>9.00900900901892e-06</v>
+        <v>9009009.009009009</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B12" t="n">
-        <v>1.001001001001991e-05</v>
+        <v>10010010.01001001</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B13" t="n">
-        <v>1.10110110110209e-05</v>
+        <v>11011011.01101101</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B14" t="n">
-        <v>1.201201201202189e-05</v>
+        <v>12012012.01201201</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B15" t="n">
-        <v>1.301301301302288e-05</v>
+        <v>13013013.01301301</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B16" t="n">
-        <v>1.401401401402387e-05</v>
+        <v>14014014.01401401</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B17" t="n">
-        <v>1.501501501502486e-05</v>
+        <v>15015015.01501502</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B18" t="n">
-        <v>1.601601601602585e-05</v>
+        <v>16016016.01601602</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B19" t="n">
-        <v>1.701701701702685e-05</v>
+        <v>17017017.01701702</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B20" t="n">
-        <v>1.801801801802784e-05</v>
+        <v>18018018.01801802</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B21" t="n">
-        <v>1.901901901902883e-05</v>
+        <v>19019019.01901902</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B22" t="n">
-        <v>2.002002002002982e-05</v>
+        <v>20020020.02002002</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B23" t="n">
-        <v>2.102102102103081e-05</v>
+        <v>21021021.02102102</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B24" t="n">
-        <v>2.20220220220318e-05</v>
+        <v>22022022.02202202</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B25" t="n">
-        <v>2.302302302303279e-05</v>
+        <v>23023023.02302302</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B26" t="n">
-        <v>2.402402402403378e-05</v>
+        <v>24024024.02402402</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B27" t="n">
-        <v>2.502502502503477e-05</v>
+        <v>25025025.02502503</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B28" t="n">
-        <v>2.602602602603577e-05</v>
+        <v>26026026.02602603</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B29" t="n">
-        <v>2.702702702703675e-05</v>
+        <v>27027027.02702703</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B30" t="n">
-        <v>2.802802802803775e-05</v>
+        <v>28028028.02802803</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B31" t="n">
-        <v>2.902902902903874e-05</v>
+        <v>29029029.02902903</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B32" t="n">
-        <v>3.003003003003973e-05</v>
+        <v>30030030.03003003</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B33" t="n">
-        <v>3.103103103104072e-05</v>
+        <v>31031031.03103103</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B34" t="n">
-        <v>3.203203203204171e-05</v>
+        <v>32032032.03203203</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B35" t="n">
-        <v>3.303303303304271e-05</v>
+        <v>33033033.03303303</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B36" t="n">
-        <v>3.40340340340437e-05</v>
+        <v>34034034.03403404</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B37" t="n">
-        <v>3.503503503504469e-05</v>
+        <v>35035035.03503504</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B38" t="n">
-        <v>3.603603603604568e-05</v>
+        <v>36036036.03603604</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B39" t="n">
-        <v>3.703703703704667e-05</v>
+        <v>37037037.03703704</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B40" t="n">
-        <v>3.803803803804766e-05</v>
+        <v>38038038.03803804</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B41" t="n">
-        <v>3.903903903904865e-05</v>
+        <v>39039039.03903904</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B42" t="n">
-        <v>4.004004004004964e-05</v>
+        <v>40040040.04004004</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B43" t="n">
-        <v>4.104104104105063e-05</v>
+        <v>41041041.04104104</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B44" t="n">
-        <v>4.204204204205162e-05</v>
+        <v>42042042.04204204</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B45" t="n">
-        <v>4.304304304305262e-05</v>
+        <v>43043043.04304304</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B46" t="n">
-        <v>4.40440440440536e-05</v>
+        <v>44044044.04404404</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B47" t="n">
-        <v>4.504504504505459e-05</v>
+        <v>45045045.04504505</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B48" t="n">
-        <v>4.604604604605559e-05</v>
+        <v>46046046.04604605</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B49" t="n">
-        <v>4.704704704705658e-05</v>
+        <v>47047047.04704705</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B50" t="n">
-        <v>4.804804804805757e-05</v>
+        <v>48048048.04804805</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B51" t="n">
-        <v>4.904904904905856e-05</v>
+        <v>49049049.04904905</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B52" t="n">
-        <v>5.005005005005955e-05</v>
+        <v>50050050.05005005</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B53" t="n">
-        <v>5.105105105106054e-05</v>
+        <v>51051051.05105105</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B54" t="n">
-        <v>5.205205205206154e-05</v>
+        <v>52052052.05205205</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B55" t="n">
-        <v>5.305305305306252e-05</v>
+        <v>53053053.05305305</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B56" t="n">
-        <v>5.405405405406351e-05</v>
+        <v>54054054.05405405</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B57" t="n">
-        <v>5.505505505506451e-05</v>
+        <v>55055055.05505505</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B58" t="n">
-        <v>5.60560560560655e-05</v>
+        <v>56056056.05605605</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B59" t="n">
-        <v>5.705705705706649e-05</v>
+        <v>57057057.05705705</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B60" t="n">
-        <v>5.805805805806748e-05</v>
+        <v>58058058.05805806</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B61" t="n">
-        <v>5.905905905906847e-05</v>
+        <v>59059059.05905906</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B62" t="n">
-        <v>6.006006006006946e-05</v>
+        <v>60060060.06006006</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B63" t="n">
-        <v>6.106106106107046e-05</v>
+        <v>61061061.06106106</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B64" t="n">
-        <v>6.206206206207144e-05</v>
+        <v>62062062.06206206</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B65" t="n">
-        <v>6.306306306307244e-05</v>
+        <v>63063063.06306306</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B66" t="n">
-        <v>6.406406406407342e-05</v>
+        <v>64064064.06406406</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B67" t="n">
-        <v>6.506506506507441e-05</v>
+        <v>65065065.06506506</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B68" t="n">
-        <v>6.606606606607541e-05</v>
+        <v>66066066.06606606</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B69" t="n">
-        <v>6.706706706707639e-05</v>
+        <v>67067067.06706706</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B70" t="n">
-        <v>6.806806806807739e-05</v>
+        <v>68068068.06806807</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B71" t="n">
-        <v>6.906906906907838e-05</v>
+        <v>69069069.06906907</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B72" t="n">
-        <v>7.007007007007938e-05</v>
+        <v>70070070.07007007</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B73" t="n">
-        <v>7.107107107108036e-05</v>
+        <v>71071071.07107107</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B74" t="n">
-        <v>7.207207207208136e-05</v>
+        <v>72072072.07207207</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B75" t="n">
-        <v>7.307307307308234e-05</v>
+        <v>73073073.07307307</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B76" t="n">
-        <v>7.407407407408333e-05</v>
+        <v>74074074.07407407</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B77" t="n">
-        <v>7.507507507508433e-05</v>
+        <v>75075075.07507508</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B78" t="n">
-        <v>7.607607607608531e-05</v>
+        <v>76076076.07607608</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B79" t="n">
-        <v>7.707707707708631e-05</v>
+        <v>77077077.07707708</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B80" t="n">
-        <v>7.80780780780873e-05</v>
+        <v>78078078.07807808</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B81" t="n">
-        <v>7.90790790790883e-05</v>
+        <v>79079079.07907908</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B82" t="n">
-        <v>8.008008008008928e-05</v>
+        <v>80080080.08008008</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B83" t="n">
-        <v>8.108108108109027e-05</v>
+        <v>81081081.08108108</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B84" t="n">
-        <v>8.208208208209126e-05</v>
+        <v>82082082.08208208</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B85" t="n">
-        <v>8.308308308309225e-05</v>
+        <v>83083083.08308308</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B86" t="n">
-        <v>8.408408408409325e-05</v>
+        <v>84084084.08408408</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B87" t="n">
-        <v>8.508508508509423e-05</v>
+        <v>85085085.08508508</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B88" t="n">
-        <v>8.608608608609523e-05</v>
+        <v>86086086.08608608</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B89" t="n">
-        <v>8.708708708709622e-05</v>
+        <v>87087087.08708708</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B90" t="n">
-        <v>8.80880880880972e-05</v>
+        <v>88088088.08808808</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B91" t="n">
-        <v>8.90890890890982e-05</v>
+        <v>89089089.08908908</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B92" t="n">
-        <v>9.009009009009919e-05</v>
+        <v>90090090.0900901</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B93" t="n">
-        <v>9.109109109110018e-05</v>
+        <v>91091091.0910911</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B94" t="n">
-        <v>9.209209209210117e-05</v>
+        <v>92092092.0920921</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B95" t="n">
-        <v>9.309309309310217e-05</v>
+        <v>93093093.0930931</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B96" t="n">
-        <v>9.409409409410315e-05</v>
+        <v>94094094.0940941</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B97" t="n">
-        <v>9.509509509510415e-05</v>
+        <v>95095095.0950951</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B98" t="n">
-        <v>9.609609609610514e-05</v>
+        <v>96096096.0960961</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B99" t="n">
-        <v>9.709709709710612e-05</v>
+        <v>97097097.0970971</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B100" t="n">
-        <v>9.809809809810712e-05</v>
+        <v>98098098.0980981</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B101" t="n">
-        <v>9.90990990991081e-05</v>
+        <v>99099099.0990991</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001001001001001091</v>
+        <v>100100100.1001001</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001011011011011101</v>
+        <v>101101101.1011011</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001021021021021111</v>
+        <v>102102102.1021021</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0001031031031031121</v>
+        <v>103103103.1031031</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0001041041041041131</v>
+        <v>104104104.1041041</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0001051051051051141</v>
+        <v>105105105.1051051</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000106106106106115</v>
+        <v>106106106.1061061</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B109" t="n">
-        <v>0.000107107107107116</v>
+        <v>107107107.1071071</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B110" t="n">
-        <v>0.000108108108108117</v>
+        <v>108108108.1081081</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B111" t="n">
-        <v>0.000109109109109118</v>
+        <v>109109109.1091091</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B112" t="n">
-        <v>0.000110110110110119</v>
+        <v>110110110.1101101</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B113" t="n">
-        <v>0.00011111111111112</v>
+        <v>111111111.1111111</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B114" t="n">
-        <v>0.000112112112112121</v>
+        <v>112112112.1121121</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B115" t="n">
-        <v>0.000113113113113122</v>
+        <v>113113113.1131131</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B116" t="n">
-        <v>0.000114114114114123</v>
+        <v>114114114.1141141</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B117" t="n">
-        <v>0.000115115115115124</v>
+        <v>115115115.1151151</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B118" t="n">
-        <v>0.000116116116116125</v>
+        <v>116116116.1161161</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0001171171171171259</v>
+        <v>117117117.1171171</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0001181181181181269</v>
+        <v>118118118.1181181</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0001191191191191279</v>
+        <v>119119119.1191191</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0001201201201201289</v>
+        <v>120120120.1201201</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0001211211211211299</v>
+        <v>121121121.1211211</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0001221221221221309</v>
+        <v>122122122.1221221</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001231231231231319</v>
+        <v>123123123.1231231</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001241241241241329</v>
+        <v>124124124.1241241</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001251251251251339</v>
+        <v>125125125.1251251</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001261261261261349</v>
+        <v>126126126.1261261</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001271271271271358</v>
+        <v>127127127.1271271</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0001281281281281368</v>
+        <v>128128128.1281281</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0001291291291291378</v>
+        <v>129129129.1291291</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0001301301301301388</v>
+        <v>130130130.1301301</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0001311311311311398</v>
+        <v>131131131.1311311</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0001321321321321408</v>
+        <v>132132132.1321321</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0001331331331331418</v>
+        <v>133133133.1331331</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0001341341341341428</v>
+        <v>134134134.1341341</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001351351351351438</v>
+        <v>135135135.1351351</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001361361361361448</v>
+        <v>136136136.1361361</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001371371371371458</v>
+        <v>137137137.1371371</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001381381381381468</v>
+        <v>138138138.1381381</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001391391391391478</v>
+        <v>139139139.1391391</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001401401401401487</v>
+        <v>140140140.1401401</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001411411411411497</v>
+        <v>141141141.1411411</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001421421421421507</v>
+        <v>142142142.1421421</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001431431431431517</v>
+        <v>143143143.1431431</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001441441441441527</v>
+        <v>144144144.1441441</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001451451451451537</v>
+        <v>145145145.1451451</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001461461461461547</v>
+        <v>146146146.1461461</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001471471471471557</v>
+        <v>147147147.1471471</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001481481481481567</v>
+        <v>148148148.1481481</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001491491491491577</v>
+        <v>149149149.1491491</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001501501501501587</v>
+        <v>150150150.1501502</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001511511511511597</v>
+        <v>151151151.1511512</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001521521521521606</v>
+        <v>152152152.1521522</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001531531531531616</v>
+        <v>153153153.1531532</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001541541541541626</v>
+        <v>154154154.1541542</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001551551551551636</v>
+        <v>155155155.1551552</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001561561561561646</v>
+        <v>156156156.1561562</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001571571571571656</v>
+        <v>157157157.1571572</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0001581581581581666</v>
+        <v>158158158.1581582</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001591591591591676</v>
+        <v>159159159.1591592</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001601601601601686</v>
+        <v>160160160.1601602</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001611611611611696</v>
+        <v>161161161.1611612</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001621621621621705</v>
+        <v>162162162.1621622</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001631631631631715</v>
+        <v>163163163.1631632</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001641641641641725</v>
+        <v>164164164.1641642</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001651651651651735</v>
+        <v>165165165.1651652</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001661661661661745</v>
+        <v>166166166.1661662</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001671671671671755</v>
+        <v>167167167.1671672</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001681681681681765</v>
+        <v>168168168.1681682</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001691691691691775</v>
+        <v>169169169.1691692</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001701701701701785</v>
+        <v>170170170.1701702</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001711711711711795</v>
+        <v>171171171.1711712</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001721721721721805</v>
+        <v>172172172.1721722</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001731731731731814</v>
+        <v>173173173.1731732</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001741741741741824</v>
+        <v>174174174.1741742</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0001751751751751834</v>
+        <v>175175175.1751752</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0001761761761761844</v>
+        <v>176176176.1761762</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0001771771771771854</v>
+        <v>177177177.1771772</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0001781781781781864</v>
+        <v>178178178.1781782</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0001791791791791874</v>
+        <v>179179179.1791792</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0001801801801801884</v>
+        <v>180180180.1801802</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0001811811811811894</v>
+        <v>181181181.1811812</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0001821821821821904</v>
+        <v>182182182.1821822</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0001831831831831914</v>
+        <v>183183183.1831832</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0001841841841841923</v>
+        <v>184184184.1841842</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001851851851851933</v>
+        <v>185185185.1851852</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0001861861861861943</v>
+        <v>186186186.1861862</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0001871871871871953</v>
+        <v>187187187.1871872</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0001881881881881963</v>
+        <v>188188188.1881882</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0001891891891891973</v>
+        <v>189189189.1891892</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0001901901901901983</v>
+        <v>190190190.1901902</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0001911911911911993</v>
+        <v>191191191.1911912</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0001921921921922003</v>
+        <v>192192192.1921922</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0001931931931932013</v>
+        <v>193193193.1931932</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0001941941941942022</v>
+        <v>194194194.1941942</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001951951951952032</v>
+        <v>195195195.1951952</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0001961961961962042</v>
+        <v>196196196.1961962</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0001971971971972052</v>
+        <v>197197197.1971972</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001981981981982062</v>
+        <v>198198198.1981982</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001991991991992072</v>
+        <v>199199199.1991992</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002002002002002082</v>
+        <v>200200200.2002002</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002012012012012092</v>
+        <v>201201201.2012012</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002022022022022102</v>
+        <v>202202202.2022022</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002032032032032112</v>
+        <v>203203203.2032032</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002042042042042122</v>
+        <v>204204204.2042042</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002052052052052131</v>
+        <v>205205205.2052052</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002062062062062141</v>
+        <v>206206206.2062062</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002072072072072151</v>
+        <v>207207207.2072072</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002082082082082161</v>
+        <v>208208208.2082082</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002092092092092171</v>
+        <v>209209209.2092092</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002102102102102181</v>
+        <v>210210210.2102102</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002112112112112191</v>
+        <v>211211211.2112112</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0002122122122122201</v>
+        <v>212212212.2122122</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002132132132132211</v>
+        <v>213213213.2132132</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002142142142142221</v>
+        <v>214214214.2142142</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002152152152152231</v>
+        <v>215215215.2152152</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B218" t="n">
-        <v>0.000216216216216224</v>
+        <v>216216216.2162162</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B219" t="n">
-        <v>0.000217217217217225</v>
+        <v>217217217.2172172</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B220" t="n">
-        <v>0.000218218218218226</v>
+        <v>218218218.2182182</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B221" t="n">
-        <v>0.000219219219219227</v>
+        <v>219219219.2192192</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B222" t="n">
-        <v>0.000220220220220228</v>
+        <v>220220220.2202202</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B223" t="n">
-        <v>0.000221221221221229</v>
+        <v>221221221.2212212</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B224" t="n">
-        <v>0.00022222222222223</v>
+        <v>222222222.2222222</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B225" t="n">
-        <v>0.000223223223223231</v>
+        <v>223223223.2232232</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B226" t="n">
-        <v>0.000224224224224232</v>
+        <v>224224224.2242242</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B227" t="n">
-        <v>0.000225225225225233</v>
+        <v>225225225.2252252</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B228" t="n">
-        <v>0.000226226226226234</v>
+        <v>226226226.2262262</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B229" t="n">
-        <v>0.000227227227227235</v>
+        <v>227227227.2272272</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0002282282282282359</v>
+        <v>228228228.2282282</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0002292292292292369</v>
+        <v>229229229.2292292</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0002302302302302379</v>
+        <v>230230230.2302302</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0002312312312312389</v>
+        <v>231231231.2312312</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0002322322322322399</v>
+        <v>232232232.2322322</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0002332332332332409</v>
+        <v>233233233.2332332</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0002342342342342419</v>
+        <v>234234234.2342342</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0002352352352352429</v>
+        <v>235235235.2352352</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0002362362362362439</v>
+        <v>236236236.2362362</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0002372372372372449</v>
+        <v>237237237.2372372</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B240" t="n">
-        <v>0.0002382382382382459</v>
+        <v>238238238.2382382</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0002392392392392469</v>
+        <v>239239239.2392392</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0002402402402402478</v>
+        <v>240240240.2402402</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B243" t="n">
-        <v>0.0002412412412412488</v>
+        <v>241241241.2412412</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B244" t="n">
-        <v>0.0002422422422422498</v>
+        <v>242242242.2422422</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B245" t="n">
-        <v>0.0002432432432432508</v>
+        <v>243243243.2432432</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0002442442442442518</v>
+        <v>244244244.2442442</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B247" t="n">
-        <v>0.0002452452452452528</v>
+        <v>245245245.2452452</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B248" t="n">
-        <v>0.0002462462462462537</v>
+        <v>246246246.2462462</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B249" t="n">
-        <v>0.0002472472472472548</v>
+        <v>247247247.2472472</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B250" t="n">
-        <v>0.0002482482482482557</v>
+        <v>248248248.2482482</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0002492492492492567</v>
+        <v>249249249.2492492</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0002502502502502577</v>
+        <v>250250250.2502503</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0002512512512512587</v>
+        <v>251251251.2512513</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B254" t="n">
-        <v>0.0002522522522522597</v>
+        <v>252252252.2522523</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B255" t="n">
-        <v>0.0002532532532532607</v>
+        <v>253253253.2532533</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0002542542542542617</v>
+        <v>254254254.2542543</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B257" t="n">
-        <v>0.0002552552552552627</v>
+        <v>255255255.2552553</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0002562562562562637</v>
+        <v>256256256.2562563</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B259" t="n">
-        <v>0.0002572572572572646</v>
+        <v>257257257.2572573</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B260" t="n">
-        <v>0.0002582582582582657</v>
+        <v>258258258.2582583</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0002592592592592666</v>
+        <v>259259259.2592593</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0002602602602602676</v>
+        <v>260260260.2602603</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0002612612612612686</v>
+        <v>261261261.2612613</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B264" t="n">
-        <v>0.0002622622622622696</v>
+        <v>262262262.2622623</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B265" t="n">
-        <v>0.0002632632632632706</v>
+        <v>263263263.2632633</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B266" t="n">
-        <v>0.0002642642642642716</v>
+        <v>264264264.2642643</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B267" t="n">
-        <v>0.0002652652652652726</v>
+        <v>265265265.2652653</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B268" t="n">
-        <v>0.0002662662662662736</v>
+        <v>266266266.2662663</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B269" t="n">
-        <v>0.0002672672672672746</v>
+        <v>267267267.2672673</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0002682682682682755</v>
+        <v>268268268.2682683</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B271" t="n">
-        <v>0.0002692692692692766</v>
+        <v>269269269.2692693</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B272" t="n">
-        <v>0.0002702702702702775</v>
+        <v>270270270.2702703</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B273" t="n">
-        <v>0.0002712712712712785</v>
+        <v>271271271.2712713</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B274" t="n">
-        <v>0.0002722722722722795</v>
+        <v>272272272.2722723</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B275" t="n">
-        <v>0.0002732732732732805</v>
+        <v>273273273.2732733</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B276" t="n">
-        <v>0.0002742742742742815</v>
+        <v>274274274.2742743</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B277" t="n">
-        <v>0.0002752752752752825</v>
+        <v>275275275.2752753</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0002762762762762835</v>
+        <v>276276276.2762763</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B279" t="n">
-        <v>0.0002772772772772845</v>
+        <v>277277277.2772773</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B280" t="n">
-        <v>0.0002782782782782855</v>
+        <v>278278278.2782783</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B281" t="n">
-        <v>0.0002792792792792864</v>
+        <v>279279279.2792793</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B282" t="n">
-        <v>0.0002802802802802875</v>
+        <v>280280280.2802803</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B283" t="n">
-        <v>0.0002812812812812884</v>
+        <v>281281281.2812813</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B284" t="n">
-        <v>0.0002822822822822894</v>
+        <v>282282282.2822823</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B285" t="n">
-        <v>0.0002832832832832904</v>
+        <v>283283283.2832833</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B286" t="n">
-        <v>0.0002842842842842914</v>
+        <v>284284284.2842843</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B287" t="n">
-        <v>0.0002852852852852924</v>
+        <v>285285285.2852853</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B288" t="n">
-        <v>0.0002862862862862934</v>
+        <v>286286286.2862863</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B289" t="n">
-        <v>0.0002872872872872944</v>
+        <v>287287287.2872873</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B290" t="n">
-        <v>0.0002882882882882954</v>
+        <v>288288288.2882883</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B291" t="n">
-        <v>0.0002892892892892964</v>
+        <v>289289289.2892893</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B292" t="n">
-        <v>0.0002902902902902973</v>
+        <v>290290290.2902903</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B293" t="n">
-        <v>0.0002912912912912984</v>
+        <v>291291291.2912913</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B294" t="n">
-        <v>0.0002922922922922993</v>
+        <v>292292292.2922923</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B295" t="n">
-        <v>0.0002932932932933003</v>
+        <v>293293293.2932933</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B296" t="n">
-        <v>0.0002942942942943013</v>
+        <v>294294294.2942943</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B297" t="n">
-        <v>0.0002952952952953023</v>
+        <v>295295295.2952953</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B298" t="n">
-        <v>0.0002962962962963033</v>
+        <v>296296296.2962963</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B299" t="n">
-        <v>0.0002972972972973043</v>
+        <v>297297297.2972973</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B300" t="n">
-        <v>0.0002982982982983053</v>
+        <v>298298298.2982983</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B301" t="n">
-        <v>0.0002992992992993063</v>
+        <v>299299299.2992993</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B302" t="n">
-        <v>0.0003003003003003073</v>
+        <v>300300300.3003003</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B303" t="n">
-        <v>0.0003013013013013083</v>
+        <v>301301301.3013013</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B304" t="n">
-        <v>0.0003023023023023093</v>
+        <v>302302302.3023023</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B305" t="n">
-        <v>0.0003033033033033102</v>
+        <v>303303303.3033033</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B306" t="n">
-        <v>0.0003043043043043112</v>
+        <v>304304304.3043043</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B307" t="n">
-        <v>0.0003053053053053122</v>
+        <v>305305305.3053053</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B308" t="n">
-        <v>0.0003063063063063132</v>
+        <v>306306306.3063063</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B309" t="n">
-        <v>0.0003073073073073142</v>
+        <v>307307307.3073073</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B310" t="n">
-        <v>0.0003083083083083152</v>
+        <v>308308308.3083083</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B311" t="n">
-        <v>0.0003093093093093162</v>
+        <v>309309309.3093093</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B312" t="n">
-        <v>0.0003103103103103172</v>
+        <v>310310310.3103103</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B313" t="n">
-        <v>0.0003113113113113182</v>
+        <v>311311311.3113113</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B314" t="n">
-        <v>0.0003123123123123192</v>
+        <v>312312312.3123123</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B315" t="n">
-        <v>0.0003133133133133201</v>
+        <v>313313313.3133133</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B316" t="n">
-        <v>0.0003143143143143212</v>
+        <v>314314314.3143143</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B317" t="n">
-        <v>0.0003153153153153221</v>
+        <v>315315315.3153153</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B318" t="n">
-        <v>0.0003163163163163231</v>
+        <v>316316316.3163163</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B319" t="n">
-        <v>0.0003173173173173241</v>
+        <v>317317317.3173173</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B320" t="n">
-        <v>0.0003183183183183251</v>
+        <v>318318318.3183183</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B321" t="n">
-        <v>0.0003193193193193261</v>
+        <v>319319319.3193193</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B322" t="n">
-        <v>0.0003203203203203271</v>
+        <v>320320320.3203203</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B323" t="n">
-        <v>0.0003213213213213281</v>
+        <v>321321321.3213213</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B324" t="n">
-        <v>0.0003223223223223291</v>
+        <v>322322322.3223223</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B325" t="n">
-        <v>0.0003233233233233301</v>
+        <v>323323323.3233233</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.000324324324324331</v>
+        <v>324324324.3243243</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.0003253253253253321</v>
+        <v>325325325.3253253</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B328" t="n">
-        <v>0.000326326326326333</v>
+        <v>326326326.3263263</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0003273273273273341</v>
+        <v>327327327.3273273</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B330" t="n">
-        <v>0.000328328328328335</v>
+        <v>328328328.3283283</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B331" t="n">
-        <v>0.000329329329329336</v>
+        <v>329329329.3293293</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B332" t="n">
-        <v>0.000330330330330337</v>
+        <v>330330330.3303303</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B333" t="n">
-        <v>0.000331331331331338</v>
+        <v>331331331.3313313</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B334" t="n">
-        <v>0.000332332332332339</v>
+        <v>332332332.3323323</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B335" t="n">
-        <v>0.00033333333333334</v>
+        <v>333333333.3333333</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B336" t="n">
-        <v>0.000334334334334341</v>
+        <v>334334334.3343343</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B337" t="n">
-        <v>0.0003353353353353419</v>
+        <v>335335335.3353353</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B338" t="n">
-        <v>0.000336336336336343</v>
+        <v>336336336.3363363</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0003373373373373439</v>
+        <v>337337337.3373373</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B340" t="n">
-        <v>0.0003383383383383449</v>
+        <v>338338338.3383383</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B341" t="n">
-        <v>0.0003393393393393459</v>
+        <v>339339339.3393393</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B342" t="n">
-        <v>0.0003403403403403469</v>
+        <v>340340340.3403403</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B343" t="n">
-        <v>0.0003413413413413479</v>
+        <v>341341341.3413413</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B344" t="n">
-        <v>0.0003423423423423489</v>
+        <v>342342342.3423423</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B345" t="n">
-        <v>0.0003433433433433499</v>
+        <v>343343343.3433433</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B346" t="n">
-        <v>0.0003443443443443509</v>
+        <v>344344344.3443443</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B347" t="n">
-        <v>0.0003453453453453519</v>
+        <v>345345345.3453453</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B348" t="n">
-        <v>0.0003463463463463528</v>
+        <v>346346346.3463463</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B349" t="n">
-        <v>0.0003473473473473539</v>
+        <v>347347347.3473473</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B350" t="n">
-        <v>0.0003483483483483548</v>
+        <v>348348348.3483483</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B351" t="n">
-        <v>0.0003493493493493558</v>
+        <v>349349349.3493493</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B352" t="n">
-        <v>0.0003503503503503568</v>
+        <v>350350350.3503503</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B353" t="n">
-        <v>0.0003513513513513578</v>
+        <v>351351351.3513513</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B354" t="n">
-        <v>0.0003523523523523588</v>
+        <v>352352352.3523523</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B355" t="n">
-        <v>0.0003533533533533598</v>
+        <v>353353353.3533533</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B356" t="n">
-        <v>0.0003543543543543608</v>
+        <v>354354354.3543543</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0003553553553553618</v>
+        <v>355355355.3553553</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B358" t="n">
-        <v>0.0003563563563563628</v>
+        <v>356356356.3563563</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B359" t="n">
-        <v>0.0003573573573573637</v>
+        <v>357357357.3573573</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B360" t="n">
-        <v>0.0003583583583583648</v>
+        <v>358358358.3583583</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B361" t="n">
-        <v>0.0003593593593593657</v>
+        <v>359359359.3593594</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B362" t="n">
-        <v>0.0003603603603603667</v>
+        <v>360360360.3603604</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B363" t="n">
-        <v>0.0003613613613613677</v>
+        <v>361361361.3613614</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B364" t="n">
-        <v>0.0003623623623623687</v>
+        <v>362362362.3623624</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B365" t="n">
-        <v>0.0003633633633633697</v>
+        <v>363363363.3633634</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B366" t="n">
-        <v>0.0003643643643643707</v>
+        <v>364364364.3643644</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B367" t="n">
-        <v>0.0003653653653653717</v>
+        <v>365365365.3653654</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B368" t="n">
-        <v>0.0003663663663663727</v>
+        <v>366366366.3663664</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B369" t="n">
-        <v>0.0003673673673673737</v>
+        <v>367367367.3673674</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B370" t="n">
-        <v>0.0003683683683683746</v>
+        <v>368368368.3683684</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B371" t="n">
-        <v>0.0003693693693693757</v>
+        <v>369369369.3693694</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B372" t="n">
-        <v>0.0003703703703703766</v>
+        <v>370370370.3703704</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B373" t="n">
-        <v>0.0003713713713713776</v>
+        <v>371371371.3713714</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B374" t="n">
-        <v>0.0003723723723723786</v>
+        <v>372372372.3723724</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B375" t="n">
-        <v>0.0003733733733733796</v>
+        <v>373373373.3733734</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B376" t="n">
-        <v>0.0003743743743743806</v>
+        <v>374374374.3743744</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B377" t="n">
-        <v>0.0003753753753753816</v>
+        <v>375375375.3753754</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B378" t="n">
-        <v>0.0003763763763763826</v>
+        <v>376376376.3763764</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B379" t="n">
-        <v>0.0003773773773773835</v>
+        <v>377377377.3773774</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B380" t="n">
-        <v>0.0003783783783783846</v>
+        <v>378378378.3783784</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B381" t="n">
-        <v>0.0003793793793793855</v>
+        <v>379379379.3793794</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B382" t="n">
-        <v>0.0003803803803803866</v>
+        <v>380380380.3803804</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B383" t="n">
-        <v>0.0003813813813813875</v>
+        <v>381381381.3813814</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B384" t="n">
-        <v>0.0003823823823823885</v>
+        <v>382382382.3823824</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B385" t="n">
-        <v>0.0003833833833833895</v>
+        <v>383383383.3833834</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B386" t="n">
-        <v>0.0003843843843843905</v>
+        <v>384384384.3843844</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B387" t="n">
-        <v>0.0003853853853853915</v>
+        <v>385385385.3853854</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B388" t="n">
-        <v>0.0003863863863863925</v>
+        <v>386386386.3863864</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B389" t="n">
-        <v>0.0003873873873873935</v>
+        <v>387387387.3873874</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B390" t="n">
-        <v>0.0003883883883883945</v>
+        <v>388388388.3883884</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B391" t="n">
-        <v>0.0003893893893893955</v>
+        <v>389389389.3893894</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B392" t="n">
-        <v>0.0003903903903903964</v>
+        <v>390390390.3903904</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B393" t="n">
-        <v>0.0003913913913913975</v>
+        <v>391391391.3913914</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B394" t="n">
-        <v>0.0003923923923923984</v>
+        <v>392392392.3923924</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B395" t="n">
-        <v>0.0003933933933933994</v>
+        <v>393393393.3933934</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B396" t="n">
-        <v>0.0003943943943944004</v>
+        <v>394394394.3943944</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B397" t="n">
-        <v>0.0003953953953954014</v>
+        <v>395395395.3953954</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B398" t="n">
-        <v>0.0003963963963964024</v>
+        <v>396396396.3963964</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B399" t="n">
-        <v>0.0003973973973974034</v>
+        <v>397397397.3973974</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B400" t="n">
-        <v>0.0003983983983984044</v>
+        <v>398398398.3983984</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B401" t="n">
-        <v>0.0003993993993994054</v>
+        <v>399399399.3993994</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B402" t="n">
-        <v>0.0004004004004004064</v>
+        <v>400400400.4004004</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B403" t="n">
-        <v>0.0004014014014014074</v>
+        <v>401401401.4014014</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B404" t="n">
-        <v>0.0004024024024024083</v>
+        <v>402402402.4024024</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B405" t="n">
-        <v>0.0004034034034034094</v>
+        <v>403403403.4034034</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B406" t="n">
-        <v>0.0004044044044044103</v>
+        <v>404404404.4044044</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B407" t="n">
-        <v>0.0004054054054054113</v>
+        <v>405405405.4054054</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B408" t="n">
-        <v>0.0004064064064064123</v>
+        <v>406406406.4064064</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B409" t="n">
-        <v>0.0004074074074074133</v>
+        <v>407407407.4074074</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B410" t="n">
-        <v>0.0004084084084084143</v>
+        <v>408408408.4084084</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B411" t="n">
-        <v>0.0004094094094094153</v>
+        <v>409409409.4094094</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B412" t="n">
-        <v>0.0004104104104104163</v>
+        <v>410410410.4104104</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B413" t="n">
-        <v>0.0004114114114114173</v>
+        <v>411411411.4114114</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B414" t="n">
-        <v>0.0004124124124124183</v>
+        <v>412412412.4124124</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B415" t="n">
-        <v>0.0004134134134134192</v>
+        <v>413413413.4134134</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B416" t="n">
-        <v>0.0004144144144144203</v>
+        <v>414414414.4144144</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B417" t="n">
-        <v>0.0004154154154154212</v>
+        <v>415415415.4154154</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B418" t="n">
-        <v>0.0004164164164164223</v>
+        <v>416416416.4164164</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B419" t="n">
-        <v>0.0004174174174174232</v>
+        <v>417417417.4174174</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B420" t="n">
-        <v>0.0004184184184184242</v>
+        <v>418418418.4184184</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B421" t="n">
-        <v>0.0004194194194194252</v>
+        <v>419419419.4194194</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B422" t="n">
-        <v>0.0004204204204204262</v>
+        <v>420420420.4204204</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B423" t="n">
-        <v>0.0004214214214214272</v>
+        <v>421421421.4214214</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B424" t="n">
-        <v>0.0004224224224224282</v>
+        <v>422422422.4224224</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B425" t="n">
-        <v>0.0004234234234234292</v>
+        <v>423423423.4234234</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B426" t="n">
-        <v>0.0004244244244244301</v>
+        <v>424424424.4244244</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B427" t="n">
-        <v>0.0004254254254254312</v>
+        <v>425425425.4254254</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B428" t="n">
-        <v>0.0004264264264264321</v>
+        <v>426426426.4264264</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B429" t="n">
-        <v>0.0004274274274274331</v>
+        <v>427427427.4274274</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B430" t="n">
-        <v>0.0004284284284284341</v>
+        <v>428428428.4284284</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B431" t="n">
-        <v>0.0004294294294294351</v>
+        <v>429429429.4294294</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B432" t="n">
-        <v>0.0004304304304304361</v>
+        <v>430430430.4304304</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B433" t="n">
-        <v>0.0004314314314314371</v>
+        <v>431431431.4314314</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B434" t="n">
-        <v>0.0004324324324324381</v>
+        <v>432432432.4324324</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B435" t="n">
-        <v>0.0004334334334334391</v>
+        <v>433433433.4334334</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B436" t="n">
-        <v>0.0004344344344344401</v>
+        <v>434434434.4344344</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B437" t="n">
-        <v>0.000435435435435441</v>
+        <v>435435435.4354354</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B438" t="n">
-        <v>0.0004364364364364421</v>
+        <v>436436436.4364364</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B439" t="n">
-        <v>0.000437437437437443</v>
+        <v>437437437.4374374</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B440" t="n">
-        <v>0.000438438438438444</v>
+        <v>438438438.4384384</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B441" t="n">
-        <v>0.000439439439439445</v>
+        <v>439439439.4394394</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B442" t="n">
-        <v>0.000440440440440446</v>
+        <v>440440440.4404404</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B443" t="n">
-        <v>0.000441441441441447</v>
+        <v>441441441.4414414</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B444" t="n">
-        <v>0.000442442442442448</v>
+        <v>442442442.4424424</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B445" t="n">
-        <v>0.000443443443443449</v>
+        <v>443443443.4434434</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B446" t="n">
-        <v>0.00044444444444445</v>
+        <v>444444444.4444444</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B447" t="n">
-        <v>0.000445445445445451</v>
+        <v>445445445.4454454</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B448" t="n">
-        <v>0.0004464464464464519</v>
+        <v>446446446.4464464</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B449" t="n">
-        <v>0.000447447447447453</v>
+        <v>447447447.4474474</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B450" t="n">
-        <v>0.0004484484484484539</v>
+        <v>448448448.4484484</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B451" t="n">
-        <v>0.0004494494494494549</v>
+        <v>449449449.4494494</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B452" t="n">
-        <v>0.0004504504504504559</v>
+        <v>450450450.4504504</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B453" t="n">
-        <v>0.0004514514514514569</v>
+        <v>451451451.4514514</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B454" t="n">
-        <v>0.0004524524524524579</v>
+        <v>452452452.4524524</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B455" t="n">
-        <v>0.0004534534534534589</v>
+        <v>453453453.4534534</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B456" t="n">
-        <v>0.0004544544544544599</v>
+        <v>454454454.4544544</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B457" t="n">
-        <v>0.0004554554554554609</v>
+        <v>455455455.4554554</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B458" t="n">
-        <v>0.0004564564564564619</v>
+        <v>456456456.4564564</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B459" t="n">
-        <v>0.0004574574574574628</v>
+        <v>457457457.4574574</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B460" t="n">
-        <v>0.0004584584584584639</v>
+        <v>458458458.4584584</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B461" t="n">
-        <v>0.0004594594594594648</v>
+        <v>459459459.4594594</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B462" t="n">
-        <v>0.0004604604604604658</v>
+        <v>460460460.4604604</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B463" t="n">
-        <v>0.0004614614614614668</v>
+        <v>461461461.4614615</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B464" t="n">
-        <v>0.0004624624624624678</v>
+        <v>462462462.4624625</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B465" t="n">
-        <v>0.0004634634634634688</v>
+        <v>463463463.4634635</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B466" t="n">
-        <v>0.0004644644644644698</v>
+        <v>464464464.4644645</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0004654654654654708</v>
+        <v>465465465.4654655</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B468" t="n">
-        <v>0.0004664664664664717</v>
+        <v>466466466.4664665</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B469" t="n">
-        <v>0.0004674674674674728</v>
+        <v>467467467.4674675</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B470" t="n">
-        <v>0.0004684684684684737</v>
+        <v>468468468.4684685</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B471" t="n">
-        <v>0.0004694694694694748</v>
+        <v>469469469.4694695</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B472" t="n">
-        <v>0.0004704704704704757</v>
+        <v>470470470.4704705</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B473" t="n">
-        <v>0.0004714714714714767</v>
+        <v>471471471.4714715</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B474" t="n">
-        <v>0.0004724724724724777</v>
+        <v>472472472.4724725</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B475" t="n">
-        <v>0.0004734734734734787</v>
+        <v>473473473.4734735</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B476" t="n">
-        <v>0.0004744744744744797</v>
+        <v>474474474.4744745</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B477" t="n">
-        <v>0.0004754754754754807</v>
+        <v>475475475.4754755</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B478" t="n">
-        <v>0.0004764764764764817</v>
+        <v>476476476.4764765</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B479" t="n">
-        <v>0.0004774774774774827</v>
+        <v>477477477.4774775</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B480" t="n">
-        <v>0.0004784784784784837</v>
+        <v>478478478.4784785</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B481" t="n">
-        <v>0.0004794794794794846</v>
+        <v>479479479.4794795</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B482" t="n">
-        <v>0.0004804804804804856</v>
+        <v>480480480.4804805</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B483" t="n">
-        <v>0.0004814814814814866</v>
+        <v>481481481.4814815</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B484" t="n">
-        <v>0.0004824824824824876</v>
+        <v>482482482.4824825</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B485" t="n">
-        <v>0.0004834834834834886</v>
+        <v>483483483.4834835</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B486" t="n">
-        <v>0.0004844844844844896</v>
+        <v>484484484.4844845</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B487" t="n">
-        <v>0.0004854854854854906</v>
+        <v>485485485.4854855</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0004864864864864916</v>
+        <v>486486486.4864865</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B489" t="n">
-        <v>0.0004874874874874926</v>
+        <v>487487487.4874875</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B490" t="n">
-        <v>0.0004884884884884936</v>
+        <v>488488488.4884885</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B491" t="n">
-        <v>0.0004894894894894946</v>
+        <v>489489489.4894895</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B492" t="n">
-        <v>0.0004904904904904956</v>
+        <v>490490490.4904905</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B493" t="n">
-        <v>0.0004914914914914965</v>
+        <v>491491491.4914915</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B494" t="n">
-        <v>0.0004924924924924975</v>
+        <v>492492492.4924925</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B495" t="n">
-        <v>0.0004934934934934986</v>
+        <v>493493493.4934935</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B496" t="n">
-        <v>0.0004944944944944995</v>
+        <v>494494494.4944945</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B497" t="n">
-        <v>0.0004954954954955005</v>
+        <v>495495495.4954955</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B498" t="n">
-        <v>0.0004964964964965015</v>
+        <v>496496496.4964965</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B499" t="n">
-        <v>0.0004974974974975025</v>
+        <v>497497497.4974975</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0004984984984985034</v>
+        <v>498498498.4984985</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B501" t="n">
-        <v>0.0004994994994995045</v>
+        <v>499499499.4994995</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B502" t="n">
-        <v>0.0005005005005005055</v>
+        <v>500500500.5005005</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B503" t="n">
-        <v>0.0005015015015015065</v>
+        <v>501501501.5015015</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B504" t="n">
-        <v>0.0005025025025025074</v>
+        <v>502502502.5025025</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B505" t="n">
-        <v>0.0005035035035035084</v>
+        <v>503503503.5035035</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B506" t="n">
-        <v>0.0005045045045045095</v>
+        <v>504504504.5045045</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B507" t="n">
-        <v>0.0005055055055055104</v>
+        <v>505505505.5055055</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B508" t="n">
-        <v>0.0005065065065065114</v>
+        <v>506506506.5065065</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B509" t="n">
-        <v>0.0005075075075075124</v>
+        <v>507507507.5075075</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B510" t="n">
-        <v>0.0005085085085085134</v>
+        <v>508508508.5085085</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B511" t="n">
-        <v>0.0005095095095095143</v>
+        <v>509509509.5095095</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B512" t="n">
-        <v>0.0005105105105105154</v>
+        <v>510510510.5105105</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B513" t="n">
-        <v>0.0005115115115115164</v>
+        <v>511511511.5115115</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B514" t="n">
-        <v>0.0005125125125125174</v>
+        <v>512512512.5125125</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B515" t="n">
-        <v>0.0005135135135135183</v>
+        <v>513513513.5135135</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B516" t="n">
-        <v>0.0005145145145145193</v>
+        <v>514514514.5145145</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B517" t="n">
-        <v>0.0005155155155155204</v>
+        <v>515515515.5155155</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B518" t="n">
-        <v>0.0005165165165165214</v>
+        <v>516516516.5165165</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B519" t="n">
-        <v>0.0005175175175175223</v>
+        <v>517517517.5175175</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B520" t="n">
-        <v>0.0005185185185185233</v>
+        <v>518518518.5185185</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B521" t="n">
-        <v>0.0005195195195195243</v>
+        <v>519519519.5195195</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B522" t="n">
-        <v>0.0005205205205205252</v>
+        <v>520520520.5205205</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B523" t="n">
-        <v>0.0005215215215215263</v>
+        <v>521521521.5215215</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B524" t="n">
-        <v>0.0005225225225225273</v>
+        <v>522522522.5225225</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B525" t="n">
-        <v>0.0005235235235235283</v>
+        <v>523523523.5235235</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B526" t="n">
-        <v>0.0005245245245245292</v>
+        <v>524524524.5245245</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B527" t="n">
-        <v>0.0005255255255255302</v>
+        <v>525525525.5255255</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B528" t="n">
-        <v>0.0005265265265265313</v>
+        <v>526526526.5265265</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B529" t="n">
-        <v>0.0005275275275275323</v>
+        <v>527527527.5275275</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B530" t="n">
-        <v>0.0005285285285285332</v>
+        <v>528528528.5285285</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B531" t="n">
-        <v>0.0005295295295295342</v>
+        <v>529529529.5295295</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B532" t="n">
-        <v>0.0005305305305305352</v>
+        <v>530530530.5305305</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B533" t="n">
-        <v>0.0005315315315315361</v>
+        <v>531531531.5315315</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B534" t="n">
-        <v>0.0005325325325325372</v>
+        <v>532532532.5325325</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B535" t="n">
-        <v>0.0005335335335335382</v>
+        <v>533533533.5335335</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B536" t="n">
-        <v>0.0005345345345345392</v>
+        <v>534534534.5345345</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B537" t="n">
-        <v>0.0005355355355355401</v>
+        <v>535535535.5355355</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B538" t="n">
-        <v>0.0005365365365365411</v>
+        <v>536536536.5365365</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B539" t="n">
-        <v>0.0005375375375375421</v>
+        <v>537537537.5375376</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B540" t="n">
-        <v>0.0005385385385385432</v>
+        <v>538538538.5385386</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B541" t="n">
-        <v>0.0005395395395395441</v>
+        <v>539539539.5395396</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B542" t="n">
-        <v>0.0005405405405405451</v>
+        <v>540540540.5405406</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B543" t="n">
-        <v>0.0005415415415415461</v>
+        <v>541541541.5415416</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B544" t="n">
-        <v>0.000542542542542547</v>
+        <v>542542542.5425426</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B545" t="n">
-        <v>0.0005435435435435481</v>
+        <v>543543543.5435436</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B546" t="n">
-        <v>0.0005445445445445491</v>
+        <v>544544544.5445446</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B547" t="n">
-        <v>0.0005455455455455501</v>
+        <v>545545545.5455456</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B548" t="n">
-        <v>0.000546546546546551</v>
+        <v>546546546.5465466</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B549" t="n">
-        <v>0.000547547547547552</v>
+        <v>547547547.5475476</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B550" t="n">
-        <v>0.000548548548548553</v>
+        <v>548548548.5485486</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B551" t="n">
-        <v>0.0005495495495495541</v>
+        <v>549549549.5495496</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B552" t="n">
-        <v>0.000550550550550555</v>
+        <v>550550550.5505506</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B553" t="n">
-        <v>0.000551551551551556</v>
+        <v>551551551.5515516</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B554" t="n">
-        <v>0.000552552552552557</v>
+        <v>552552552.5525526</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B555" t="n">
-        <v>0.0005535535535535579</v>
+        <v>553553553.5535536</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B556" t="n">
-        <v>0.000554554554554559</v>
+        <v>554554554.5545546</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B557" t="n">
-        <v>0.00055555555555556</v>
+        <v>555555555.5555556</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B558" t="n">
-        <v>0.000556556556556561</v>
+        <v>556556556.5565566</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B559" t="n">
-        <v>0.0005575575575575619</v>
+        <v>557557557.5575576</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B560" t="n">
-        <v>0.0005585585585585629</v>
+        <v>558558558.5585586</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B561" t="n">
-        <v>0.0005595595595595639</v>
+        <v>559559559.5595596</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B562" t="n">
-        <v>0.000560560560560565</v>
+        <v>560560560.5605606</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B563" t="n">
-        <v>0.0005615615615615659</v>
+        <v>561561561.5615616</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B564" t="n">
-        <v>0.0005625625625625669</v>
+        <v>562562562.5625626</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B565" t="n">
-        <v>0.0005635635635635679</v>
+        <v>563563563.5635636</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B566" t="n">
-        <v>0.0005645645645645689</v>
+        <v>564564564.5645646</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B567" t="n">
-        <v>0.0005655655655655699</v>
+        <v>565565565.5655656</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B568" t="n">
-        <v>0.0005665665665665709</v>
+        <v>566566566.5665666</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B569" t="n">
-        <v>0.0005675675675675719</v>
+        <v>567567567.5675676</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B570" t="n">
-        <v>0.0005685685685685728</v>
+        <v>568568568.5685686</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B571" t="n">
-        <v>0.0005695695695695738</v>
+        <v>569569569.5695696</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B572" t="n">
-        <v>0.0005705705705705748</v>
+        <v>570570570.5705706</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B573" t="n">
-        <v>0.0005715715715715759</v>
+        <v>571571571.5715716</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B574" t="n">
-        <v>0.0005725725725725768</v>
+        <v>572572572.5725726</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B575" t="n">
-        <v>0.0005735735735735778</v>
+        <v>573573573.5735736</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B576" t="n">
-        <v>0.0005745745745745788</v>
+        <v>574574574.5745746</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B577" t="n">
-        <v>0.0005755755755755798</v>
+        <v>575575575.5755756</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B578" t="n">
-        <v>0.0005765765765765808</v>
+        <v>576576576.5765766</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B579" t="n">
-        <v>0.0005775775775775818</v>
+        <v>577577577.5775776</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B580" t="n">
-        <v>0.0005785785785785828</v>
+        <v>578578578.5785786</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B581" t="n">
-        <v>0.0005795795795795838</v>
+        <v>579579579.5795796</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B582" t="n">
-        <v>0.0005805805805805847</v>
+        <v>580580580.5805806</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B583" t="n">
-        <v>0.0005815815815815857</v>
+        <v>581581581.5815816</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B584" t="n">
-        <v>0.0005825825825825868</v>
+        <v>582582582.5825826</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B585" t="n">
-        <v>0.0005835835835835877</v>
+        <v>583583583.5835836</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B586" t="n">
-        <v>0.0005845845845845887</v>
+        <v>584584584.5845846</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B587" t="n">
-        <v>0.0005855855855855897</v>
+        <v>585585585.5855856</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B588" t="n">
-        <v>0.0005865865865865907</v>
+        <v>586586586.5865866</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B589" t="n">
-        <v>0.0005875875875875916</v>
+        <v>587587587.5875876</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B590" t="n">
-        <v>0.0005885885885885927</v>
+        <v>588588588.5885886</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B591" t="n">
-        <v>0.0005895895895895937</v>
+        <v>589589589.5895896</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B592" t="n">
-        <v>0.0005905905905905947</v>
+        <v>590590590.5905906</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B593" t="n">
-        <v>0.0005915915915915956</v>
+        <v>591591591.5915916</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B594" t="n">
-        <v>0.0005925925925925966</v>
+        <v>592592592.5925926</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B595" t="n">
-        <v>0.0005935935935935977</v>
+        <v>593593593.5935936</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B596" t="n">
-        <v>0.0005945945945945986</v>
+        <v>594594594.5945946</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B597" t="n">
-        <v>0.0005955955955955996</v>
+        <v>595595595.5955956</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B598" t="n">
-        <v>0.0005965965965966006</v>
+        <v>596596596.5965966</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B599" t="n">
-        <v>0.0005975975975976016</v>
+        <v>597597597.5975976</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B600" t="n">
-        <v>0.0005985985985986025</v>
+        <v>598598598.5985986</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B601" t="n">
-        <v>0.0005995995995996036</v>
+        <v>599599599.5995996</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B602" t="n">
-        <v>0.0006006006006006046</v>
+        <v>600600600.6006006</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B603" t="n">
-        <v>0.0006016016016016056</v>
+        <v>601601601.6016016</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B604" t="n">
-        <v>0.0006026026026026065</v>
+        <v>602602602.6026026</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B605" t="n">
-        <v>0.0006036036036036075</v>
+        <v>603603603.6036036</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B606" t="n">
-        <v>0.0006046046046046086</v>
+        <v>604604604.6046046</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B607" t="n">
-        <v>0.0006056056056056096</v>
+        <v>605605605.6056056</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B608" t="n">
-        <v>0.0006066066066066105</v>
+        <v>606606606.6066066</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B609" t="n">
-        <v>0.0006076076076076115</v>
+        <v>607607607.6076076</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B610" t="n">
-        <v>0.0006086086086086125</v>
+        <v>608608608.6086086</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B611" t="n">
-        <v>0.0006096096096096134</v>
+        <v>609609609.6096096</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B612" t="n">
-        <v>0.0006106106106106145</v>
+        <v>610610610.6106106</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B613" t="n">
-        <v>0.0006116116116116155</v>
+        <v>611611611.6116116</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B614" t="n">
-        <v>0.0006126126126126165</v>
+        <v>612612612.6126126</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B615" t="n">
-        <v>0.0006136136136136174</v>
+        <v>613613613.6136136</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B616" t="n">
-        <v>0.0006146146146146184</v>
+        <v>614614614.6146146</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B617" t="n">
-        <v>0.0006156156156156195</v>
+        <v>615615615.6156156</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B618" t="n">
-        <v>0.0006166166166166205</v>
+        <v>616616616.6166166</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B619" t="n">
-        <v>0.0006176176176176214</v>
+        <v>617617617.6176176</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B620" t="n">
-        <v>0.0006186186186186224</v>
+        <v>618618618.6186186</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B621" t="n">
-        <v>0.0006196196196196234</v>
+        <v>619619619.6196196</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B622" t="n">
-        <v>0.0006206206206206243</v>
+        <v>620620620.6206206</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B623" t="n">
-        <v>0.0006216216216216254</v>
+        <v>621621621.6216216</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B624" t="n">
-        <v>0.0006226226226226264</v>
+        <v>622622622.6226226</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B625" t="n">
-        <v>0.0006236236236236274</v>
+        <v>623623623.6236236</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B626" t="n">
-        <v>0.0006246246246246283</v>
+        <v>624624624.6246246</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B627" t="n">
-        <v>0.0006256256256256293</v>
+        <v>625625625.6256256</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B628" t="n">
-        <v>0.0006266266266266303</v>
+        <v>626626626.6266266</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B629" t="n">
-        <v>0.0006276276276276314</v>
+        <v>627627627.6276276</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B630" t="n">
-        <v>0.0006286286286286323</v>
+        <v>628628628.6286286</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B631" t="n">
-        <v>0.0006296296296296333</v>
+        <v>629629629.6296296</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B632" t="n">
-        <v>0.0006306306306306343</v>
+        <v>630630630.6306306</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B633" t="n">
-        <v>0.0006316316316316352</v>
+        <v>631631631.6316316</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B634" t="n">
-        <v>0.0006326326326326363</v>
+        <v>632632632.6326326</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B635" t="n">
-        <v>0.0006336336336336373</v>
+        <v>633633633.6336336</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B636" t="n">
-        <v>0.0006346346346346383</v>
+        <v>634634634.6346346</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B637" t="n">
-        <v>0.0006356356356356392</v>
+        <v>635635635.6356356</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B638" t="n">
-        <v>0.0006366366366366402</v>
+        <v>636636636.6366366</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B639" t="n">
-        <v>0.0006376376376376412</v>
+        <v>637637637.6376376</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B640" t="n">
-        <v>0.0006386386386386423</v>
+        <v>638638638.6386386</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B641" t="n">
-        <v>0.0006396396396396432</v>
+        <v>639639639.6396396</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B642" t="n">
-        <v>0.0006406406406406442</v>
+        <v>640640640.6406406</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B643" t="n">
-        <v>0.0006416416416416452</v>
+        <v>641641641.6416416</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B644" t="n">
-        <v>0.0006426426426426461</v>
+        <v>642642642.6426426</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B645" t="n">
-        <v>0.0006436436436436472</v>
+        <v>643643643.6436436</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B646" t="n">
-        <v>0.0006446446446446482</v>
+        <v>644644644.6446446</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B647" t="n">
-        <v>0.0006456456456456492</v>
+        <v>645645645.6456456</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B648" t="n">
-        <v>0.0006466466466466501</v>
+        <v>646646646.6466466</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B649" t="n">
-        <v>0.0006476476476476511</v>
+        <v>647647647.6476476</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B650" t="n">
-        <v>0.0006486486486486521</v>
+        <v>648648648.6486486</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B651" t="n">
-        <v>0.0006496496496496532</v>
+        <v>649649649.6496496</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B652" t="n">
-        <v>0.0006506506506506541</v>
+        <v>650650650.6506506</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B653" t="n">
-        <v>0.0006516516516516551</v>
+        <v>651651651.6516516</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B654" t="n">
-        <v>0.0006526526526526561</v>
+        <v>652652652.6526526</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B655" t="n">
-        <v>0.0006536536536536571</v>
+        <v>653653653.6536536</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B656" t="n">
-        <v>0.0006546546546546581</v>
+        <v>654654654.6546546</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B657" t="n">
-        <v>0.0006556556556556591</v>
+        <v>655655655.6556556</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B658" t="n">
-        <v>0.0006566566566566601</v>
+        <v>656656656.6566566</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B659" t="n">
-        <v>0.000657657657657661</v>
+        <v>657657657.6576576</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B660" t="n">
-        <v>0.000658658658658662</v>
+        <v>658658658.6586586</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B661" t="n">
-        <v>0.000659659659659663</v>
+        <v>659659659.6596596</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B662" t="n">
-        <v>0.0006606606606606641</v>
+        <v>660660660.6606606</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B663" t="n">
-        <v>0.000661661661661665</v>
+        <v>661661661.6616616</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B664" t="n">
-        <v>0.000662662662662666</v>
+        <v>662662662.6626626</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B665" t="n">
-        <v>0.000663663663663667</v>
+        <v>663663663.6636636</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B666" t="n">
-        <v>0.000664664664664668</v>
+        <v>664664664.6646646</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B667" t="n">
-        <v>0.0006656656656656689</v>
+        <v>665665665.6656656</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B668" t="n">
-        <v>0.00066666666666667</v>
+        <v>666666666.6666666</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B669" t="n">
-        <v>0.000667667667667671</v>
+        <v>667667667.6676676</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B670" t="n">
-        <v>0.0006686686686686719</v>
+        <v>668668668.6686686</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B671" t="n">
-        <v>0.0006696696696696729</v>
+        <v>669669669.6696696</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B672" t="n">
-        <v>0.0006706706706706739</v>
+        <v>670670670.6706706</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B673" t="n">
-        <v>0.000671671671671675</v>
+        <v>671671671.6716716</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B674" t="n">
-        <v>0.0006726726726726759</v>
+        <v>672672672.6726726</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B675" t="n">
-        <v>0.0006736736736736769</v>
+        <v>673673673.6736736</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B676" t="n">
-        <v>0.0006746746746746779</v>
+        <v>674674674.6746746</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B677" t="n">
-        <v>0.0006756756756756789</v>
+        <v>675675675.6756756</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B678" t="n">
-        <v>0.0006766766766766798</v>
+        <v>676676676.6766766</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B679" t="n">
-        <v>0.0006776776776776809</v>
+        <v>677677677.6776776</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B680" t="n">
-        <v>0.0006786786786786819</v>
+        <v>678678678.6786786</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B681" t="n">
-        <v>0.0006796796796796829</v>
+        <v>679679679.6796796</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B682" t="n">
-        <v>0.0006806806806806838</v>
+        <v>680680680.6806806</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B683" t="n">
-        <v>0.0006816816816816848</v>
+        <v>681681681.6816816</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B684" t="n">
-        <v>0.0006826826826826859</v>
+        <v>682682682.6826826</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B685" t="n">
-        <v>0.0006836836836836868</v>
+        <v>683683683.6836836</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B686" t="n">
-        <v>0.0006846846846846878</v>
+        <v>684684684.6846846</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B687" t="n">
-        <v>0.0006856856856856888</v>
+        <v>685685685.6856856</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B688" t="n">
-        <v>0.0006866866866866898</v>
+        <v>686686686.6866866</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B689" t="n">
-        <v>0.0006876876876876907</v>
+        <v>687687687.6876876</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B690" t="n">
-        <v>0.0006886886886886918</v>
+        <v>688688688.6886886</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B691" t="n">
-        <v>0.0006896896896896928</v>
+        <v>689689689.6896896</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B692" t="n">
-        <v>0.0006906906906906938</v>
+        <v>690690690.6906906</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B693" t="n">
-        <v>0.0006916916916916947</v>
+        <v>691691691.6916916</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B694" t="n">
-        <v>0.0006926926926926957</v>
+        <v>692692692.6926926</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B695" t="n">
-        <v>0.0006936936936936968</v>
+        <v>693693693.6936936</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B696" t="n">
-        <v>0.0006946946946946977</v>
+        <v>694694694.6946946</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B697" t="n">
-        <v>0.0006956956956956987</v>
+        <v>695695695.6956956</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B698" t="n">
-        <v>0.0006966966966966997</v>
+        <v>696696696.6966966</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B699" t="n">
-        <v>0.0006976976976977007</v>
+        <v>697697697.6976976</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B700" t="n">
-        <v>0.0006986986986987016</v>
+        <v>698698698.6986986</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B701" t="n">
-        <v>0.0006996996996997027</v>
+        <v>699699699.6996996</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B702" t="n">
-        <v>0.0007007007007007037</v>
+        <v>700700700.7007006</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B703" t="n">
-        <v>0.0007017017017017047</v>
+        <v>701701701.7017016</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B704" t="n">
-        <v>0.0007027027027027056</v>
+        <v>702702702.7027026</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B705" t="n">
-        <v>0.0007037037037037066</v>
+        <v>703703703.7037036</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B706" t="n">
-        <v>0.0007047047047047076</v>
+        <v>704704704.7047046</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B707" t="n">
-        <v>0.0007057057057057087</v>
+        <v>705705705.7057056</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B708" t="n">
-        <v>0.0007067067067067096</v>
+        <v>706706706.7067066</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B709" t="n">
-        <v>0.0007077077077077106</v>
+        <v>707707707.7077076</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B710" t="n">
-        <v>0.0007087087087087116</v>
+        <v>708708708.7087086</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B711" t="n">
-        <v>0.0007097097097097125</v>
+        <v>709709709.7097096</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B712" t="n">
-        <v>0.0007107107107107136</v>
+        <v>710710710.7107106</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B713" t="n">
-        <v>0.0007117117117117146</v>
+        <v>711711711.7117116</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B714" t="n">
-        <v>0.0007127127127127156</v>
+        <v>712712712.7127126</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B715" t="n">
-        <v>0.0007137137137137165</v>
+        <v>713713713.7137136</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B716" t="n">
-        <v>0.0007147147147147175</v>
+        <v>714714714.7147146</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B717" t="n">
-        <v>0.0007157157157157185</v>
+        <v>715715715.7157156</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B718" t="n">
-        <v>0.0007167167167167196</v>
+        <v>716716716.7167166</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B719" t="n">
-        <v>0.0007177177177177205</v>
+        <v>717717717.7177178</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B720" t="n">
-        <v>0.0007187187187187215</v>
+        <v>718718718.7187188</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B721" t="n">
-        <v>0.0007197197197197225</v>
+        <v>719719719.7197198</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B722" t="n">
-        <v>0.0007207207207207234</v>
+        <v>720720720.7207208</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B723" t="n">
-        <v>0.0007217217217217245</v>
+        <v>721721721.7217218</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B724" t="n">
-        <v>0.0007227227227227255</v>
+        <v>722722722.7227228</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B725" t="n">
-        <v>0.0007237237237237265</v>
+        <v>723723723.7237238</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B726" t="n">
-        <v>0.0007247247247247274</v>
+        <v>724724724.7247248</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B727" t="n">
-        <v>0.0007257257257257284</v>
+        <v>725725725.7257258</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B728" t="n">
-        <v>0.0007267267267267294</v>
+        <v>726726726.7267268</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B729" t="n">
-        <v>0.0007277277277277305</v>
+        <v>727727727.7277278</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B730" t="n">
-        <v>0.0007287287287287314</v>
+        <v>728728728.7287288</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B731" t="n">
-        <v>0.0007297297297297324</v>
+        <v>729729729.7297298</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B732" t="n">
-        <v>0.0007307307307307334</v>
+        <v>730730730.7307308</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B733" t="n">
-        <v>0.0007317317317317343</v>
+        <v>731731731.7317318</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B734" t="n">
-        <v>0.0007327327327327354</v>
+        <v>732732732.7327328</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B735" t="n">
-        <v>0.0007337337337337364</v>
+        <v>733733733.7337338</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B736" t="n">
-        <v>0.0007347347347347374</v>
+        <v>734734734.7347348</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B737" t="n">
-        <v>0.0007357357357357383</v>
+        <v>735735735.7357358</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B738" t="n">
-        <v>0.0007367367367367393</v>
+        <v>736736736.7367368</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B739" t="n">
-        <v>0.0007377377377377403</v>
+        <v>737737737.7377378</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B740" t="n">
-        <v>0.0007387387387387414</v>
+        <v>738738738.7387388</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B741" t="n">
-        <v>0.0007397397397397423</v>
+        <v>739739739.7397398</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B742" t="n">
-        <v>0.0007407407407407433</v>
+        <v>740740740.7407408</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B743" t="n">
-        <v>0.0007417417417417443</v>
+        <v>741741741.7417418</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B744" t="n">
-        <v>0.0007427427427427452</v>
+        <v>742742742.7427428</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B745" t="n">
-        <v>0.0007437437437437463</v>
+        <v>743743743.7437438</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B746" t="n">
-        <v>0.0007447447447447473</v>
+        <v>744744744.7447448</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B747" t="n">
-        <v>0.0007457457457457483</v>
+        <v>745745745.7457458</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B748" t="n">
-        <v>0.0007467467467467492</v>
+        <v>746746746.7467468</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B749" t="n">
-        <v>0.0007477477477477502</v>
+        <v>747747747.7477478</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B750" t="n">
-        <v>0.0007487487487487512</v>
+        <v>748748748.7487488</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B751" t="n">
-        <v>0.0007497497497497523</v>
+        <v>749749749.7497498</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B752" t="n">
-        <v>0.0007507507507507532</v>
+        <v>750750750.7507508</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B753" t="n">
-        <v>0.0007517517517517542</v>
+        <v>751751751.7517518</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B754" t="n">
-        <v>0.0007527527527527552</v>
+        <v>752752752.7527528</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B755" t="n">
-        <v>0.0007537537537537562</v>
+        <v>753753753.7537538</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B756" t="n">
-        <v>0.0007547547547547571</v>
+        <v>754754754.7547548</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B757" t="n">
-        <v>0.0007557557557557582</v>
+        <v>755755755.7557558</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B758" t="n">
-        <v>0.0007567567567567592</v>
+        <v>756756756.7567568</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B759" t="n">
-        <v>0.0007577577577577601</v>
+        <v>757757757.7577578</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B760" t="n">
-        <v>0.0007587587587587611</v>
+        <v>758758758.7587588</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B761" t="n">
-        <v>0.0007597597597597621</v>
+        <v>759759759.7597598</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B762" t="n">
-        <v>0.0007607607607607632</v>
+        <v>760760760.7607608</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B763" t="n">
-        <v>0.0007617617617617641</v>
+        <v>761761761.7617618</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B764" t="n">
-        <v>0.0007627627627627651</v>
+        <v>762762762.7627628</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B765" t="n">
-        <v>0.0007637637637637661</v>
+        <v>763763763.7637638</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B766" t="n">
-        <v>0.0007647647647647671</v>
+        <v>764764764.7647648</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B767" t="n">
-        <v>0.000765765765765768</v>
+        <v>765765765.7657658</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B768" t="n">
-        <v>0.0007667667667667691</v>
+        <v>766766766.7667668</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B769" t="n">
-        <v>0.0007677677677677701</v>
+        <v>767767767.7677678</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B770" t="n">
-        <v>0.0007687687687687711</v>
+        <v>768768768.7687688</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B771" t="n">
-        <v>0.000769769769769772</v>
+        <v>769769769.7697698</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B772" t="n">
-        <v>0.000770770770770773</v>
+        <v>770770770.7707708</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B773" t="n">
-        <v>0.0007717717717717741</v>
+        <v>771771771.7717718</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B774" t="n">
-        <v>0.000772772772772775</v>
+        <v>772772772.7727728</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B775" t="n">
-        <v>0.000773773773773776</v>
+        <v>773773773.7737738</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B776" t="n">
-        <v>0.000774774774774777</v>
+        <v>774774774.7747748</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B777" t="n">
-        <v>0.000775775775775778</v>
+        <v>775775775.7757758</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B778" t="n">
-        <v>0.0007767767767767789</v>
+        <v>776776776.7767768</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B779" t="n">
-        <v>0.00077777777777778</v>
+        <v>777777777.7777778</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B780" t="n">
-        <v>0.000778778778778781</v>
+        <v>778778778.7787788</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B781" t="n">
-        <v>0.000779779779779782</v>
+        <v>779779779.7797798</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B782" t="n">
-        <v>0.0007807807807807829</v>
+        <v>780780780.7807808</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B783" t="n">
-        <v>0.0007817817817817839</v>
+        <v>781781781.7817818</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B784" t="n">
-        <v>0.000782782782782785</v>
+        <v>782782782.7827828</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B785" t="n">
-        <v>0.0007837837837837859</v>
+        <v>783783783.7837838</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B786" t="n">
-        <v>0.0007847847847847869</v>
+        <v>784784784.7847848</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B787" t="n">
-        <v>0.0007857857857857879</v>
+        <v>785785785.7857858</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B788" t="n">
-        <v>0.0007867867867867889</v>
+        <v>786786786.7867868</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B789" t="n">
-        <v>0.0007877877877877898</v>
+        <v>787787787.7877878</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B790" t="n">
-        <v>0.0007887887887887909</v>
+        <v>788788788.7887888</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B791" t="n">
-        <v>0.0007897897897897919</v>
+        <v>789789789.7897898</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B792" t="n">
-        <v>0.0007907907907907929</v>
+        <v>790790790.7907908</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B793" t="n">
-        <v>0.0007917917917917938</v>
+        <v>791791791.7917918</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B794" t="n">
-        <v>0.0007927927927927948</v>
+        <v>792792792.7927928</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B795" t="n">
-        <v>0.0007937937937937958</v>
+        <v>793793793.7937938</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B796" t="n">
-        <v>0.0007947947947947969</v>
+        <v>794794794.7947948</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B797" t="n">
-        <v>0.0007957957957957978</v>
+        <v>795795795.7957958</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B798" t="n">
-        <v>0.0007967967967967988</v>
+        <v>796796796.7967968</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B799" t="n">
-        <v>0.0007977977977977998</v>
+        <v>797797797.7977978</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B800" t="n">
-        <v>0.0007987987987988007</v>
+        <v>798798798.7987988</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B801" t="n">
-        <v>0.0007997997997998018</v>
+        <v>799799799.7997998</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B802" t="n">
-        <v>0.0008008008008008028</v>
+        <v>800800800.8008008</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B803" t="n">
-        <v>0.0008018018018018038</v>
+        <v>801801801.8018018</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B804" t="n">
-        <v>0.0008028028028028047</v>
+        <v>802802802.8028028</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B805" t="n">
-        <v>0.0008038038038038057</v>
+        <v>803803803.8038038</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B806" t="n">
-        <v>0.0008048048048048067</v>
+        <v>804804804.8048048</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B807" t="n">
-        <v>0.0008058058058058078</v>
+        <v>805805805.8058058</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B808" t="n">
-        <v>0.0008068068068068087</v>
+        <v>806806806.8068068</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B809" t="n">
-        <v>0.0008078078078078097</v>
+        <v>807807807.8078078</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B810" t="n">
-        <v>0.0008088088088088107</v>
+        <v>808808808.8088088</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B811" t="n">
-        <v>0.0008098098098098116</v>
+        <v>809809809.8098098</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B812" t="n">
-        <v>0.0008108108108108127</v>
+        <v>810810810.8108108</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B813" t="n">
-        <v>0.0008118118118118137</v>
+        <v>811811811.8118118</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B814" t="n">
-        <v>0.0008128128128128147</v>
+        <v>812812812.8128128</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B815" t="n">
-        <v>0.0008138138138138156</v>
+        <v>813813813.8138138</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B816" t="n">
-        <v>0.0008148148148148166</v>
+        <v>814814814.8148148</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B817" t="n">
-        <v>0.0008158158158158176</v>
+        <v>815815815.8158158</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B818" t="n">
-        <v>0.0008168168168168187</v>
+        <v>816816816.8168168</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B819" t="n">
-        <v>0.0008178178178178196</v>
+        <v>817817817.8178178</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B820" t="n">
-        <v>0.0008188188188188206</v>
+        <v>818818818.8188188</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B821" t="n">
-        <v>0.0008198198198198216</v>
+        <v>819819819.8198198</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B822" t="n">
-        <v>0.0008208208208208225</v>
+        <v>820820820.8208208</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B823" t="n">
-        <v>0.0008218218218218236</v>
+        <v>821821821.8218218</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B824" t="n">
-        <v>0.0008228228228228246</v>
+        <v>822822822.8228228</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B825" t="n">
-        <v>0.0008238238238238256</v>
+        <v>823823823.8238238</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B826" t="n">
-        <v>0.0008248248248248265</v>
+        <v>824824824.8248248</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B827" t="n">
-        <v>0.0008258258258258275</v>
+        <v>825825825.8258258</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B828" t="n">
-        <v>0.0008268268268268285</v>
+        <v>826826826.8268268</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B829" t="n">
-        <v>0.0008278278278278296</v>
+        <v>827827827.8278278</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B830" t="n">
-        <v>0.0008288288288288305</v>
+        <v>828828828.8288288</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B831" t="n">
-        <v>0.0008298298298298315</v>
+        <v>829829829.8298298</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B832" t="n">
-        <v>0.0008308308308308325</v>
+        <v>830830830.8308308</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B833" t="n">
-        <v>0.0008318318318318334</v>
+        <v>831831831.8318318</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B834" t="n">
-        <v>0.0008328328328328345</v>
+        <v>832832832.8328328</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B835" t="n">
-        <v>0.0008338338338338355</v>
+        <v>833833833.8338338</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B836" t="n">
-        <v>0.0008348348348348365</v>
+        <v>834834834.8348348</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B837" t="n">
-        <v>0.0008358358358358374</v>
+        <v>835835835.8358358</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B838" t="n">
-        <v>0.0008368368368368384</v>
+        <v>836836836.8368368</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B839" t="n">
-        <v>0.0008378378378378394</v>
+        <v>837837837.8378378</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B840" t="n">
-        <v>0.0008388388388388405</v>
+        <v>838838838.8388388</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B841" t="n">
-        <v>0.0008398398398398414</v>
+        <v>839839839.8398398</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B842" t="n">
-        <v>0.0008408408408408424</v>
+        <v>840840840.8408408</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B843" t="n">
-        <v>0.0008418418418418434</v>
+        <v>841841841.8418418</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B844" t="n">
-        <v>0.0008428428428428444</v>
+        <v>842842842.8428428</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B845" t="n">
-        <v>0.0008438438438438453</v>
+        <v>843843843.8438438</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B846" t="n">
-        <v>0.0008448448448448464</v>
+        <v>844844844.8448448</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B847" t="n">
-        <v>0.0008458458458458474</v>
+        <v>845845845.8458458</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B848" t="n">
-        <v>0.0008468468468468483</v>
+        <v>846846846.8468468</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B849" t="n">
-        <v>0.0008478478478478493</v>
+        <v>847847847.8478478</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B850" t="n">
-        <v>0.0008488488488488503</v>
+        <v>848848848.8488488</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B851" t="n">
-        <v>0.0008498498498498514</v>
+        <v>849849849.8498498</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B852" t="n">
-        <v>0.0008508508508508523</v>
+        <v>850850850.8508508</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B853" t="n">
-        <v>0.0008518518518518533</v>
+        <v>851851851.8518518</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B854" t="n">
-        <v>0.0008528528528528543</v>
+        <v>852852852.8528528</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B855" t="n">
-        <v>0.0008538538538538553</v>
+        <v>853853853.8538538</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B856" t="n">
-        <v>0.0008548548548548562</v>
+        <v>854854854.8548548</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B857" t="n">
-        <v>0.0008558558558558573</v>
+        <v>855855855.8558558</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B858" t="n">
-        <v>0.0008568568568568583</v>
+        <v>856856856.8568568</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B859" t="n">
-        <v>0.0008578578578578592</v>
+        <v>857857857.8578578</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B860" t="n">
-        <v>0.0008588588588588602</v>
+        <v>858858858.8588588</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B861" t="n">
-        <v>0.0008598598598598612</v>
+        <v>859859859.8598598</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B862" t="n">
-        <v>0.0008608608608608623</v>
+        <v>860860860.8608608</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B863" t="n">
-        <v>0.0008618618618618632</v>
+        <v>861861861.8618618</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B864" t="n">
-        <v>0.0008628628628628642</v>
+        <v>862862862.8628628</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B865" t="n">
-        <v>0.0008638638638638652</v>
+        <v>863863863.8638638</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B866" t="n">
-        <v>0.0008648648648648662</v>
+        <v>864864864.8648648</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B867" t="n">
-        <v>0.0008658658658658671</v>
+        <v>865865865.8658658</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B868" t="n">
-        <v>0.0008668668668668682</v>
+        <v>866866866.8668668</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B869" t="n">
-        <v>0.0008678678678678692</v>
+        <v>867867867.8678678</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B870" t="n">
-        <v>0.0008688688688688702</v>
+        <v>868868868.8688688</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B871" t="n">
-        <v>0.0008698698698698711</v>
+        <v>869869869.8698698</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B872" t="n">
-        <v>0.0008708708708708721</v>
+        <v>870870870.8708708</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B873" t="n">
-        <v>0.0008718718718718732</v>
+        <v>871871871.8718718</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B874" t="n">
-        <v>0.0008728728728728741</v>
+        <v>872872872.8728728</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B875" t="n">
-        <v>0.0008738738738738751</v>
+        <v>873873873.8738738</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B876" t="n">
-        <v>0.0008748748748748761</v>
+        <v>874874874.8748748</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B877" t="n">
-        <v>0.0008758758758758771</v>
+        <v>875875875.8758758</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B878" t="n">
-        <v>0.000876876876876878</v>
+        <v>876876876.8768768</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B879" t="n">
-        <v>0.0008778778778778791</v>
+        <v>877877877.8778778</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B880" t="n">
-        <v>0.0008788788788788801</v>
+        <v>878878878.8788788</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B881" t="n">
-        <v>0.0008798798798798811</v>
+        <v>879879879.8798798</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B882" t="n">
-        <v>0.000880880880880882</v>
+        <v>880880880.8808808</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B883" t="n">
-        <v>0.000881881881881883</v>
+        <v>881881881.8818818</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B884" t="n">
-        <v>0.000882882882882884</v>
+        <v>882882882.8828828</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B885" t="n">
-        <v>0.000883883883883885</v>
+        <v>883883883.8838838</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B886" t="n">
-        <v>0.000884884884884886</v>
+        <v>884884884.8848848</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B887" t="n">
-        <v>0.000885885885885887</v>
+        <v>885885885.8858858</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B888" t="n">
-        <v>0.000886886886886888</v>
+        <v>886886886.8868868</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B889" t="n">
-        <v>0.0008878878878878889</v>
+        <v>887887887.8878878</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B890" t="n">
-        <v>0.00088888888888889</v>
+        <v>888888888.8888888</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B891" t="n">
-        <v>0.000889889889889891</v>
+        <v>889889889.8898898</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B892" t="n">
-        <v>0.000890890890890892</v>
+        <v>890890890.8908908</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B893" t="n">
-        <v>0.0008918918918918929</v>
+        <v>891891891.8918918</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B894" t="n">
-        <v>0.0008928928928928939</v>
+        <v>892892892.8928928</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B895" t="n">
-        <v>0.0008938938938938949</v>
+        <v>893893893.8938938</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B896" t="n">
-        <v>0.000894894894894896</v>
+        <v>894894894.8948948</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B897" t="n">
-        <v>0.0008958958958958969</v>
+        <v>895895895.8958958</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B898" t="n">
-        <v>0.0008968968968968979</v>
+        <v>896896896.8968968</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B899" t="n">
-        <v>0.0008978978978978989</v>
+        <v>897897897.8978978</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B900" t="n">
-        <v>0.0008988988988988998</v>
+        <v>898898898.8988988</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B901" t="n">
-        <v>0.0008998998998999009</v>
+        <v>899899899.8998998</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B902" t="n">
-        <v>0.0009009009009009019</v>
+        <v>900900900.9009008</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B903" t="n">
-        <v>0.0009019019019019029</v>
+        <v>901901901.9019018</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B904" t="n">
-        <v>0.0009029029029029038</v>
+        <v>902902902.9029028</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B905" t="n">
-        <v>0.0009039039039039048</v>
+        <v>903903903.9039038</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B906" t="n">
-        <v>0.0009049049049049058</v>
+        <v>904904904.9049048</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B907" t="n">
-        <v>0.0009059059059059069</v>
+        <v>905905905.9059058</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B908" t="n">
-        <v>0.0009069069069069078</v>
+        <v>906906906.9069068</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B909" t="n">
-        <v>0.0009079079079079088</v>
+        <v>907907907.9079078</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B910" t="n">
-        <v>0.0009089089089089098</v>
+        <v>908908908.9089088</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B911" t="n">
-        <v>0.0009099099099099107</v>
+        <v>909909909.9099098</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B912" t="n">
-        <v>0.0009109109109109118</v>
+        <v>910910910.9109108</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B913" t="n">
-        <v>0.0009119119119119128</v>
+        <v>911911911.9119118</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B914" t="n">
-        <v>0.0009129129129129138</v>
+        <v>912912912.9129128</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B915" t="n">
-        <v>0.0009139139139139147</v>
+        <v>913913913.9139138</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B916" t="n">
-        <v>0.0009149149149149157</v>
+        <v>914914914.9149148</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B917" t="n">
-        <v>0.0009159159159159167</v>
+        <v>915915915.9159158</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B918" t="n">
-        <v>0.0009169169169169178</v>
+        <v>916916916.9169168</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B919" t="n">
-        <v>0.0009179179179179187</v>
+        <v>917917917.9179178</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B920" t="n">
-        <v>0.0009189189189189197</v>
+        <v>918918918.9189188</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B921" t="n">
-        <v>0.0009199199199199207</v>
+        <v>919919919.9199198</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B922" t="n">
-        <v>0.0009209209209209216</v>
+        <v>920920920.9209208</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B923" t="n">
-        <v>0.0009219219219219226</v>
+        <v>921921921.9219218</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B924" t="n">
-        <v>0.0009229229229229237</v>
+        <v>922922922.922923</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B925" t="n">
-        <v>0.0009239239239239247</v>
+        <v>923923923.923924</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B926" t="n">
-        <v>0.0009249249249249256</v>
+        <v>924924924.924925</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B927" t="n">
-        <v>0.0009259259259259266</v>
+        <v>925925925.925926</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B928" t="n">
-        <v>0.0009269269269269276</v>
+        <v>926926926.926927</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B929" t="n">
-        <v>0.0009279279279279287</v>
+        <v>927927927.927928</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B930" t="n">
-        <v>0.0009289289289289296</v>
+        <v>928928928.928929</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B931" t="n">
-        <v>0.0009299299299299306</v>
+        <v>929929929.92993</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B932" t="n">
-        <v>0.0009309309309309316</v>
+        <v>930930930.930931</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B933" t="n">
-        <v>0.0009319319319319325</v>
+        <v>931931931.931932</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B934" t="n">
-        <v>0.0009329329329329335</v>
+        <v>932932932.932933</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B935" t="n">
-        <v>0.0009339339339339346</v>
+        <v>933933933.933934</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B936" t="n">
-        <v>0.0009349349349349356</v>
+        <v>934934934.934935</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B937" t="n">
-        <v>0.0009359359359359365</v>
+        <v>935935935.935936</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B938" t="n">
-        <v>0.0009369369369369375</v>
+        <v>936936936.936937</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B939" t="n">
-        <v>0.0009379379379379385</v>
+        <v>937937937.937938</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B940" t="n">
-        <v>0.0009389389389389396</v>
+        <v>938938938.938939</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B941" t="n">
-        <v>0.0009399399399399405</v>
+        <v>939939939.93994</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B942" t="n">
-        <v>0.0009409409409409415</v>
+        <v>940940940.940941</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B943" t="n">
-        <v>0.0009419419419419425</v>
+        <v>941941941.941942</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B944" t="n">
-        <v>0.0009429429429429435</v>
+        <v>942942942.942943</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B945" t="n">
-        <v>0.0009439439439439444</v>
+        <v>943943943.943944</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B946" t="n">
-        <v>0.0009449449449449455</v>
+        <v>944944944.944945</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B947" t="n">
-        <v>0.0009459459459459465</v>
+        <v>945945945.945946</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B948" t="n">
-        <v>0.0009469469469469474</v>
+        <v>946946946.946947</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B949" t="n">
-        <v>0.0009479479479479484</v>
+        <v>947947947.947948</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B950" t="n">
-        <v>0.0009489489489489494</v>
+        <v>948948948.948949</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B951" t="n">
-        <v>0.0009499499499499505</v>
+        <v>949949949.94995</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B952" t="n">
-        <v>0.0009509509509509514</v>
+        <v>950950950.950951</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B953" t="n">
-        <v>0.0009519519519519524</v>
+        <v>951951951.951952</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B954" t="n">
-        <v>0.0009529529529529534</v>
+        <v>952952952.952953</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B955" t="n">
-        <v>0.0009539539539539544</v>
+        <v>953953953.953954</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B956" t="n">
-        <v>0.0009549549549549553</v>
+        <v>954954954.954955</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B957" t="n">
-        <v>0.0009559559559559564</v>
+        <v>955955955.955956</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B958" t="n">
-        <v>0.0009569569569569574</v>
+        <v>956956956.956957</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B959" t="n">
-        <v>0.0009579579579579584</v>
+        <v>957957957.957958</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B960" t="n">
-        <v>0.0009589589589589593</v>
+        <v>958958958.958959</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B961" t="n">
-        <v>0.0009599599599599603</v>
+        <v>959959959.95996</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B962" t="n">
-        <v>0.0009609609609609613</v>
+        <v>960960960.960961</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B963" t="n">
-        <v>0.0009619619619619623</v>
+        <v>961961961.961962</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B964" t="n">
-        <v>0.0009629629629629633</v>
+        <v>962962962.962963</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B965" t="n">
-        <v>0.0009639639639639643</v>
+        <v>963963963.963964</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B966" t="n">
-        <v>0.0009649649649649653</v>
+        <v>964964964.964965</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B967" t="n">
-        <v>0.0009659659659659662</v>
+        <v>965965965.965966</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B968" t="n">
-        <v>0.0009669669669669673</v>
+        <v>966966966.966967</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B969" t="n">
-        <v>0.0009679679679679683</v>
+        <v>967967967.967968</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B970" t="n">
-        <v>0.0009689689689689693</v>
+        <v>968968968.968969</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B971" t="n">
-        <v>0.0009699699699699702</v>
+        <v>969969969.96997</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B972" t="n">
-        <v>0.0009709709709709712</v>
+        <v>970970970.970971</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B973" t="n">
-        <v>0.0009719719719719722</v>
+        <v>971971971.971972</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B974" t="n">
-        <v>0.0009729729729729732</v>
+        <v>972972972.972973</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B975" t="n">
-        <v>0.0009739739739739742</v>
+        <v>973973973.973974</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B976" t="n">
-        <v>0.0009749749749749752</v>
+        <v>974974974.974975</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B977" t="n">
-        <v>0.0009759759759759762</v>
+        <v>975975975.975976</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B978" t="n">
-        <v>0.0009769769769769772</v>
+        <v>976976976.976977</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B979" t="n">
-        <v>0.0009779779779779782</v>
+        <v>977977977.977978</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B980" t="n">
-        <v>0.0009789789789789792</v>
+        <v>978978978.978979</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B981" t="n">
-        <v>0.0009799799799799802</v>
+        <v>979979979.97998</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B982" t="n">
-        <v>0.0009809809809809811</v>
+        <v>980980980.980981</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B983" t="n">
-        <v>0.0009819819819819821</v>
+        <v>981981981.981982</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B984" t="n">
-        <v>0.0009829829829829831</v>
+        <v>982982982.982983</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B985" t="n">
-        <v>0.000983983983983984</v>
+        <v>983983983.983984</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B986" t="n">
-        <v>0.000984984984984985</v>
+        <v>984984984.984985</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B987" t="n">
-        <v>0.000985985985985986</v>
+        <v>985985985.985986</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B988" t="n">
-        <v>0.0009869869869869872</v>
+        <v>986986986.986987</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B989" t="n">
-        <v>0.0009879879879879881</v>
+        <v>987987987.987988</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B990" t="n">
-        <v>0.0009889889889889891</v>
+        <v>988988988.988989</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B991" t="n">
-        <v>0.0009899899899899901</v>
+        <v>989989989.98999</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B992" t="n">
-        <v>0.0009909909909909911</v>
+        <v>990990990.990991</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B993" t="n">
-        <v>0.000991991991991992</v>
+        <v>991991991.991992</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B994" t="n">
-        <v>0.000992992992992993</v>
+        <v>992992992.992993</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B995" t="n">
-        <v>0.000993993993993994</v>
+        <v>993993993.993994</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B996" t="n">
-        <v>0.0009949949949949949</v>
+        <v>994994994.994995</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B997" t="n">
-        <v>0.0009959959959959959</v>
+        <v>995995995.995996</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B998" t="n">
-        <v>0.0009969969969969969</v>
+        <v>996996996.996997</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B999" t="n">
-        <v>0.0009979979979979981</v>
+        <v>997997997.997998</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B1000" t="n">
-        <v>0.000998998998998999</v>
+        <v>998998998.998999</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>0.0002954457325</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.001</v>
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>
